--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C3ABB8-556C-428A-8458-3262A970B8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6F142D-1600-5746-BAAD-251185648FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="3150" windowWidth="22500" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11860" yWindow="4960" windowWidth="28400" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +49,38 @@
   </si>
   <si>
     <t>开始设计数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用mybatis-plus，设计后端users表的链表分页查询功能，项目发布到github</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台查询users表的相关操作，完成users表的链表分页查询功能，优化数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复users表的链表分页查询功能按照groups表id排序的问题；登录功能的设计，完成后端登录功能，验证码功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端登录页面设计，输入手机号或者邮箱中的任意一个即可登录，输入框的验证的功能；前后端配合验证登录功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习springboot整合mybatis和mybatis-plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改前端页面逻辑，实现输入框的验证，修复手机登录会提示邮箱输入为空和邮箱登录提示手机为空的bug，完成完成登录功能。学习vue，编写首页基础代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习vue，编写前端页面代码，完成首页的导航栏样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习vue路由设置，通过路由完成首页导航栏的跳转功能，登录页面验证码功能的实现（通过session传入时间戳作为key，验证码作为value来验证）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -48,9 +89,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,10 +149,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -402,18 +443,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="143.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="143.83203125" style="5" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="50" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -421,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="30" customHeight="1">
       <c r="A2" s="2">
         <v>44558</v>
       </c>
@@ -429,7 +470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="30" customHeight="1">
       <c r="A3" s="2">
         <v>44559</v>
       </c>
@@ -437,127 +478,151 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="30" customHeight="1">
       <c r="A4" s="2">
         <v>44560</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="30" customHeight="1">
       <c r="A5" s="2">
         <v>44561</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="30" customHeight="1">
       <c r="A6" s="2">
         <v>44562</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="30" customHeight="1">
       <c r="A7" s="2">
         <v>44563</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="30" customHeight="1">
       <c r="A8" s="2">
         <v>44564</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="30" customHeight="1">
       <c r="A9" s="2">
         <v>44565</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="30" customHeight="1">
       <c r="A10" s="2">
         <v>44566</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="30" customHeight="1">
       <c r="A11" s="2">
         <v>44567</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="30" customHeight="1">
       <c r="A12" s="2">
         <v>44568</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="30" customHeight="1">
       <c r="A13" s="2">
         <v>44569</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="30" customHeight="1">
       <c r="A14" s="2">
         <v>44570</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" customHeight="1">
       <c r="A15" s="2">
         <v>44571</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" customHeight="1">
       <c r="A16" s="2">
         <v>44572</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
       <c r="A17" s="2">
         <v>44573</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
       <c r="A18" s="2">
         <v>44574</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
       <c r="A19" s="2">
         <v>44575</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
       <c r="A20" s="2">
         <v>44576</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
       <c r="A21" s="2">
         <v>44577</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
       <c r="A22" s="2">
         <v>44578</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="30" customHeight="1">
       <c r="A23" s="2">
         <v>44579</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="30" customHeight="1">
       <c r="A24" s="2">
         <v>44580</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="30" customHeight="1">
       <c r="A25" s="2">
         <v>44581</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="30" customHeight="1">
       <c r="A26" s="2">
         <v>44582</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="30" customHeight="1">
       <c r="A27" s="2">
         <v>44583</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="30" customHeight="1">
       <c r="A28" s="2">
         <v>44584</v>
       </c>

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6F142D-1600-5746-BAAD-251185648FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCD2244-A67E-4F4A-B225-C3641D3ABEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="4960" windowWidth="28400" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21620" yWindow="4000" windowWidth="28400" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>学习vue路由设置，通过路由完成首页导航栏的跳转功能，登录页面验证码功能的实现（通过session传入时间戳作为key，验证码作为value来验证）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端注册页面代码，完成样式以及大部分逻辑。完成后端根据组编码查询功能，联动前端测试成功。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,6 +600,9 @@
       <c r="A22" s="2">
         <v>44578</v>
       </c>
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="30" customHeight="1">
       <c r="A23" s="2">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCD2244-A67E-4F4A-B225-C3641D3ABEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4232ECF7-3EBA-D042-90DA-F723317443F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21620" yWindow="4000" windowWidth="28400" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,7 +84,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编写前端注册页面代码，完成样式以及大部分逻辑。完成后端根据组编码查询功能，联动前端测试成功。</t>
+    <t>编写前端注册页面代码，完成样式以及部分逻辑。完成后端根据组编码查询功能，联动前端测试成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改前端注册页面代码，完善逻辑。完成后端查询手机号和邮箱是否存在，联动前端测试成功。修改选择身份功能，遇到实现插入数据返回id的困难。没解决完成。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +452,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -608,6 +612,9 @@
       <c r="A23" s="2">
         <v>44579</v>
       </c>
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="30" customHeight="1">
       <c r="A24" s="2">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4232ECF7-3EBA-D042-90DA-F723317443F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18F8D36-368A-8044-9D47-34CFF45FB4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21620" yWindow="4000" windowWidth="28400" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15520" yWindow="4340" windowWidth="28400" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18F8D36-368A-8044-9D47-34CFF45FB4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DFF6F9-482A-EF42-968F-6FD0E91315D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15520" yWindow="4340" windowWidth="28400" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13000" yWindow="3900" windowWidth="28400" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,7 +88,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改前端注册页面代码，完善逻辑。完成后端查询手机号和邮箱是否存在，联动前端测试成功。修改选择身份功能，遇到实现插入数据返回id的困难。没解决完成。</t>
+    <t>修改前端注册页面代码，完善逻辑。完成后端查询手机号和邮箱是否存在，联动前端测试成功。修改选择身份功能遇到实现插入数据返回id的困难没解决完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善登录功能；完成注册功能；美化顶部，底部前端页面；修改路由发生变化，标题随之变化；完善后台登录注册逻辑。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +456,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -620,6 +624,9 @@
       <c r="A24" s="2">
         <v>44580</v>
       </c>
+      <c r="B24" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:2" ht="30" customHeight="1">
       <c r="A25" s="2">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DFF6F9-482A-EF42-968F-6FD0E91315D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9906057-7AD8-3C47-9CB4-5A3D09948229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13000" yWindow="3900" windowWidth="28400" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>完善登录功能；完成注册功能；美化顶部，底部前端页面；修改路由发生变化，标题随之变化；完善后台登录注册逻辑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端主页代码，设置路由淡入淡出过渡动画。调整前端页面的目录结构，使其更加直观。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +460,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -632,6 +636,9 @@
       <c r="A25" s="2">
         <v>44581</v>
       </c>
+      <c r="B25" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:2" ht="30" customHeight="1">
       <c r="A26" s="2">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9906057-7AD8-3C47-9CB4-5A3D09948229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F10214B-A9D0-FF41-A873-4FFDE22E1D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13000" yWindow="3900" windowWidth="28400" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,10 @@
   </si>
   <si>
     <t>编写前端主页代码，设置路由淡入淡出过渡动画。调整前端页面的目录结构，使其更加直观。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写发布比赛的前端页面，实现后台数据传输。碰到springboot解析转义符的问题没解决\n不能存入数据库。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +464,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -644,6 +648,9 @@
       <c r="A26" s="2">
         <v>44582</v>
       </c>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="1:2" ht="30" customHeight="1">
       <c r="A27" s="2">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F10214B-A9D0-FF41-A873-4FFDE22E1D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050C1474-5053-014F-9F3F-3350D4B0DB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="3900" windowWidth="28400" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="3380" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,14 @@
   </si>
   <si>
     <t>编写发布比赛的前端页面，实现后台数据传输。碰到springboot解析转义符的问题没解决\n不能存入数据库。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善首页页面；设计比赛详情页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化比赛详情页面，显示相应的内容。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -656,14 +664,206 @@
       <c r="A27" s="2">
         <v>44583</v>
       </c>
+      <c r="B27" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" spans="1:2" ht="30" customHeight="1">
       <c r="A28" s="2">
         <v>44584</v>
       </c>
+      <c r="B28" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="2">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="2">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="2">
+        <v>44587</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="2">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="30" customHeight="1">
+      <c r="A33" s="2">
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="30" customHeight="1">
+      <c r="A34" s="2">
+        <v>44590</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="30" customHeight="1">
+      <c r="A35" s="2">
+        <v>44591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="30" customHeight="1">
+      <c r="A36" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="30" customHeight="1">
+      <c r="A37" s="2">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="30" customHeight="1">
+      <c r="A38" s="2">
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="30" customHeight="1">
+      <c r="A39" s="2">
+        <v>44595</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="30" customHeight="1">
+      <c r="A40" s="2">
+        <v>44596</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="30" customHeight="1">
+      <c r="A41" s="2">
+        <v>44597</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="30" customHeight="1">
+      <c r="A42" s="2">
+        <v>44598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="30" customHeight="1">
+      <c r="A43" s="2">
+        <v>44599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="30" customHeight="1">
+      <c r="A44" s="2">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="30" customHeight="1">
+      <c r="A45" s="2">
+        <v>44601</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="30" customHeight="1">
+      <c r="A46" s="2">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="30" customHeight="1">
+      <c r="A47" s="2">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="30" customHeight="1">
+      <c r="A48" s="2">
+        <v>44604</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="30" customHeight="1">
+      <c r="A49" s="2">
+        <v>44605</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="30" customHeight="1">
+      <c r="A50" s="2">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="30" customHeight="1">
+      <c r="A51" s="2">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="30" customHeight="1">
+      <c r="A52" s="2">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="30" customHeight="1">
+      <c r="A53" s="2">
+        <v>44609</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="30" customHeight="1">
+      <c r="A54" s="2">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="30" customHeight="1">
+      <c r="A55" s="2">
+        <v>44611</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="30" customHeight="1">
+      <c r="A56" s="2">
+        <v>44612</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="30" customHeight="1">
+      <c r="A57" s="2">
+        <v>44613</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="30" customHeight="1">
+      <c r="A58" s="2">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="30" customHeight="1">
+      <c r="A59" s="2">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="30" customHeight="1">
+      <c r="A60" s="2">
+        <v>44616</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="30" customHeight="1">
+      <c r="A61" s="2">
+        <v>44617</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="30" customHeight="1">
+      <c r="A62" s="2">
+        <v>44618</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="30" customHeight="1">
+      <c r="A63" s="2">
+        <v>44619</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="30" customHeight="1">
+      <c r="A64" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="30" customHeight="1">
+      <c r="A65" s="2">
+        <v>44621</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050C1474-5053-014F-9F3F-3350D4B0DB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CAC3CE-8F82-2D44-88A2-BB2F7A628955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="3380" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12360" yWindow="9380" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>优化比赛详情页面，显示相应的内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复跳转子页面而导航菜单无选中效果的问题；报名比赛前后台功能逻辑实现。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +476,7 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -680,6 +684,9 @@
       <c r="A29" s="2">
         <v>44585</v>
       </c>
+      <c r="B29" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="1:2" ht="30" customHeight="1">
       <c r="A30" s="2">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CAC3CE-8F82-2D44-88A2-BB2F7A628955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B415B1-6E2A-7240-B4C3-EDE13454C801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12360" yWindow="9380" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,9 @@
   <si>
     <t>修复跳转子页面而导航菜单无选中效果的问题；报名比赛前后台功能逻辑实现。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛详细页面功能实现</t>
   </si>
 </sst>
 </file>
@@ -475,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -703,82 +706,85 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30" customHeight="1">
+    <row r="33" spans="1:2" ht="30" customHeight="1">
       <c r="A33" s="2">
         <v>44589</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="30" customHeight="1">
+    <row r="34" spans="1:2" ht="30" customHeight="1">
       <c r="A34" s="2">
         <v>44590</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="30" customHeight="1">
+    <row r="35" spans="1:2" ht="30" customHeight="1">
       <c r="A35" s="2">
         <v>44591</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="30" customHeight="1">
+    <row r="36" spans="1:2" ht="30" customHeight="1">
       <c r="A36" s="2">
         <v>44592</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="30" customHeight="1">
+    <row r="37" spans="1:2" ht="30" customHeight="1">
       <c r="A37" s="2">
         <v>44593</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="30" customHeight="1">
+    <row r="38" spans="1:2" ht="30" customHeight="1">
       <c r="A38" s="2">
         <v>44594</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="30" customHeight="1">
+    <row r="39" spans="1:2" ht="30" customHeight="1">
       <c r="A39" s="2">
         <v>44595</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="30" customHeight="1">
+    <row r="40" spans="1:2" ht="30" customHeight="1">
       <c r="A40" s="2">
         <v>44596</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="30" customHeight="1">
+    <row r="41" spans="1:2" ht="30" customHeight="1">
       <c r="A41" s="2">
         <v>44597</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="30" customHeight="1">
+      <c r="B41" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" customHeight="1">
       <c r="A42" s="2">
         <v>44598</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="30" customHeight="1">
+    <row r="43" spans="1:2" ht="30" customHeight="1">
       <c r="A43" s="2">
         <v>44599</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="30" customHeight="1">
+    <row r="44" spans="1:2" ht="30" customHeight="1">
       <c r="A44" s="2">
         <v>44600</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="30" customHeight="1">
+    <row r="45" spans="1:2" ht="30" customHeight="1">
       <c r="A45" s="2">
         <v>44601</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="30" customHeight="1">
+    <row r="46" spans="1:2" ht="30" customHeight="1">
       <c r="A46" s="2">
         <v>44602</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="30" customHeight="1">
+    <row r="47" spans="1:2" ht="30" customHeight="1">
       <c r="A47" s="2">
         <v>44603</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="30" customHeight="1">
+    <row r="48" spans="1:2" ht="30" customHeight="1">
       <c r="A48" s="2">
         <v>44604</v>
       </c>

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B415B1-6E2A-7240-B4C3-EDE13454C801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B1C0E8-3E08-2641-9203-CBE6F7B70B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12360" yWindow="9380" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,7 +116,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>比赛详细页面功能实现</t>
+    <t>个人中心页面功能实现，优化比赛详细页面逻辑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛详细页面功能实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -478,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -751,7 +756,7 @@
         <v>44597</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" customHeight="1">
@@ -772,6 +777,9 @@
     <row r="45" spans="1:2" ht="30" customHeight="1">
       <c r="A45" s="2">
         <v>44601</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" customHeight="1">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B1C0E8-3E08-2641-9203-CBE6F7B70B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82875BF0-63AE-C148-81C5-7BA947D00A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="9380" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16500" yWindow="9620" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,14 @@
   </si>
   <si>
     <t>比赛详细页面功能实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新部分md文档，完成首页和发现比赛列表组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决路由重复冗余报错；修改个人中心页面；设计并完成比赛结果页面；调整前端目录结构。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +492,7 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -763,6 +771,9 @@
       <c r="A42" s="2">
         <v>44598</v>
       </c>
+      <c r="B42" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="43" spans="1:2" ht="30" customHeight="1">
       <c r="A43" s="2">
@@ -785,6 +796,9 @@
     <row r="46" spans="1:2" ht="30" customHeight="1">
       <c r="A46" s="2">
         <v>44602</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30" customHeight="1">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82875BF0-63AE-C148-81C5-7BA947D00A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDCEAFA-CD0D-A14D-BAF5-A150EFE28E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16500" yWindow="9620" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>解决路由重复冗余报错；修改个人中心页面；设计并完成比赛结果页面；调整前端目录结构。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决后端传前端时间变成时间戳的问题；完成首页公告模块代码编写；设计并完成公告中心和公告详情页面；md插件报错问题解决不了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -805,6 +809,9 @@
       <c r="A47" s="2">
         <v>44603</v>
       </c>
+      <c r="B47" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="48" spans="1:2" ht="30" customHeight="1">
       <c r="A48" s="2">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDCEAFA-CD0D-A14D-BAF5-A150EFE28E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E6C917-B499-7440-938D-A4D04AC399E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="9620" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14980" yWindow="8240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,10 @@
   </si>
   <si>
     <t>解决后端传前端时间变成时间戳的问题；完成首页公告模块代码编写；设计并完成公告中心和公告详情页面；md插件报错问题解决不了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息功能未完全实现；目前遇到不可解决的问题：如果在消息详情页面，再次点击消息内容不变，只会改变url。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +500,7 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -817,6 +821,9 @@
       <c r="A48" s="2">
         <v>44604</v>
       </c>
+      <c r="B48" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="49" spans="1:1" ht="30" customHeight="1">
       <c r="A49" s="2">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E6C917-B499-7440-938D-A4D04AC399E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E510FC3-4706-724D-917E-1E921D80C26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14980" yWindow="8240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15600" yWindow="7900" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消息功能未完全实现；目前遇到不可解决的问题：如果在消息详情页面，再次点击消息内容不变，只会改变url。</t>
+    <t>消息功能未完全实现；目前遇到不可解决的问题：如果在消息详情页面，再次点击消息内容不变，只会改变url。修复问题，优化未读消息实时显示。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E510FC3-4706-724D-917E-1E921D80C26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D464666-F791-D742-AF06-8DEC08DC27DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="7900" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13940" yWindow="7980" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>消息功能未完全实现；目前遇到不可解决的问题：如果在消息详情页面，再次点击消息内容不变，只会改变url。修复问题，优化未读消息实时显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化比赛详情页面（报名之后发送一条消息，并刷新消息列表和未读消息数量）、顶部用户组件、个人信息页面、消息详情页面、导航组件；完成活动搜索功能；重新设计发布页面。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,13 +504,13 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="143.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="166.5" style="5" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -825,82 +829,85 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="30" customHeight="1">
+    <row r="49" spans="1:2" ht="30" customHeight="1">
       <c r="A49" s="2">
         <v>44605</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="30" customHeight="1">
+      <c r="B49" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" customHeight="1">
       <c r="A50" s="2">
         <v>44606</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="30" customHeight="1">
+    <row r="51" spans="1:2" ht="30" customHeight="1">
       <c r="A51" s="2">
         <v>44607</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="30" customHeight="1">
+    <row r="52" spans="1:2" ht="30" customHeight="1">
       <c r="A52" s="2">
         <v>44608</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="30" customHeight="1">
+    <row r="53" spans="1:2" ht="30" customHeight="1">
       <c r="A53" s="2">
         <v>44609</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="30" customHeight="1">
+    <row r="54" spans="1:2" ht="30" customHeight="1">
       <c r="A54" s="2">
         <v>44610</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="30" customHeight="1">
+    <row r="55" spans="1:2" ht="30" customHeight="1">
       <c r="A55" s="2">
         <v>44611</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="30" customHeight="1">
+    <row r="56" spans="1:2" ht="30" customHeight="1">
       <c r="A56" s="2">
         <v>44612</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="30" customHeight="1">
+    <row r="57" spans="1:2" ht="30" customHeight="1">
       <c r="A57" s="2">
         <v>44613</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="30" customHeight="1">
+    <row r="58" spans="1:2" ht="30" customHeight="1">
       <c r="A58" s="2">
         <v>44614</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="30" customHeight="1">
+    <row r="59" spans="1:2" ht="30" customHeight="1">
       <c r="A59" s="2">
         <v>44615</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="30" customHeight="1">
+    <row r="60" spans="1:2" ht="30" customHeight="1">
       <c r="A60" s="2">
         <v>44616</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="30" customHeight="1">
+    <row r="61" spans="1:2" ht="30" customHeight="1">
       <c r="A61" s="2">
         <v>44617</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="30" customHeight="1">
+    <row r="62" spans="1:2" ht="30" customHeight="1">
       <c r="A62" s="2">
         <v>44618</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="30" customHeight="1">
+    <row r="63" spans="1:2" ht="30" customHeight="1">
       <c r="A63" s="2">
         <v>44619</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="30" customHeight="1">
+    <row r="64" spans="1:2" ht="30" customHeight="1">
       <c r="A64" s="2">
         <v>44620</v>
       </c>

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D464666-F791-D742-AF06-8DEC08DC27DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6364393D-1478-CE4A-B653-61627DE96F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13940" yWindow="7980" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12740" yWindow="7660" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>优化比赛详情页面（报名之后发送一条消息，并刷新消息列表和未读消息数量）、顶部用户组件、个人信息页面、消息详情页面、导航组件；完成活动搜索功能；重新设计发布页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新设计发布页面，设计并完成发布页面下列的比赛列表页面，设计出发送消息页面。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +508,7 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -841,6 +845,9 @@
       <c r="A50" s="2">
         <v>44606</v>
       </c>
+      <c r="B50" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="51" spans="1:2" ht="30" customHeight="1">
       <c r="A51" s="2">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6364393D-1478-CE4A-B653-61627DE96F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27741483-1FD7-CF4B-858D-4358B0EAE25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12740" yWindow="7660" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12580" yWindow="7240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,7 +144,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重新设计发布页面，设计并完成发布页面下列的比赛列表页面，设计出发送消息页面。</t>
+    <t>修改整体过渡动画；重新设计发布页面；设计并完成发布页面下列的比赛列表页面；设计出发送消息页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成评审页面；修改发布消息页面、发布比赛页面、消息详情页面、比赛详情页面、个人中心页面。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +512,7 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -853,6 +857,9 @@
       <c r="A51" s="2">
         <v>44607</v>
       </c>
+      <c r="B51" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="52" spans="1:2" ht="30" customHeight="1">
       <c r="A52" s="2">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27741483-1FD7-CF4B-858D-4358B0EAE25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA0E01C-0B8B-EB4C-A7C2-F16A03E87797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12580" yWindow="7240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13640" yWindow="7140" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,10 @@
   </si>
   <si>
     <t>完成评审页面；修改发布消息页面、发布比赛页面、消息详情页面、比赛详情页面、个人中心页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改前端代码，把sessionStorage存储的用户信息改为用vuex存储。另外后期会把localStorage存储的用户信息改为只存储用户账号密码的密文。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -900,6 +904,9 @@
       <c r="A59" s="2">
         <v>44615</v>
       </c>
+      <c r="B59" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="60" spans="1:2" ht="30" customHeight="1">
       <c r="A60" s="2">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA0E01C-0B8B-EB4C-A7C2-F16A03E87797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83CB882-AA80-1B42-9A6D-0AE7A494F184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13640" yWindow="7140" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>修改前端代码，把sessionStorage存储的用户信息改为用vuex存储。另外后期会把localStorage存储的用户信息改为只存储用户账号密码的密文。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新设计自动登录功能，数据库采用md5加密方式存储密码，前端同样采用md5加密方式存储在localStorage。存在bug：前端部分组件加载后获取不到存储在vuex里的用户信息。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -932,6 +936,9 @@
       <c r="A64" s="2">
         <v>44620</v>
       </c>
+      <c r="B64" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="65" spans="1:1" ht="30" customHeight="1">
       <c r="A65" s="2">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83CB882-AA80-1B42-9A6D-0AE7A494F184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED0C43C-6785-B14E-9529-83BE98CABD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13640" yWindow="7140" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9740" yWindow="4820" windowWidth="29920" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>重新设计自动登录功能，数据库采用md5加密方式存储密码，前端同样采用md5加密方式存储在localStorage。存在bug：前端部分组件加载后获取不到存储在vuex里的用户信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新设计发布页面：将发布页面更改为管理页面，重新设计管理页面路由，以及管理默认页；获取数据方式由sessionStorage改为vuex；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +524,7 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -940,9 +944,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="30" customHeight="1">
+    <row r="65" spans="1:2" ht="30" customHeight="1">
       <c r="A65" s="2">
         <v>44621</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED0C43C-6785-B14E-9529-83BE98CABD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D098069-858A-1248-BF5A-32B85EBF294E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9740" yWindow="4820" windowWidth="29920" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="3820" windowWidth="29920" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>重新设计发布页面：将发布页面更改为管理页面，重新设计管理页面路由，以及管理默认页；获取数据方式由sessionStorage改为vuex；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成管理页面下的添加比赛和修改比赛功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增消息删除功能和删除所有已读功能；修复添加比赛后，返回比赛列表不显示新发布的比赛，检测到是由于sql语句不严谨导致，内连接只显示关联的数据，更换为左连接，分组字段改为contest_id，查询字段COUNT(contest_title)改为COUNT(scores_id) 即可。
+更改前：
+SELECT contests.contest_id,contest_title,COUNT(contest_title) number FROM contests INNER JOIN scores ON contests.contest_id=scores.contest_id WHERE group_id = 3 GROUP BY contest_title
+更改后：
+SELECT contests.contest_id,contest_title,COUNT(scores_id) number FROM contests LEFT JOIN scores ON contests.contest_id=scores.contest_id WHERE group_id = 3 GROUP BY contest_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -240,6 +252,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -952,6 +967,92 @@
         <v>31</v>
       </c>
     </row>
+    <row r="66" spans="1:2" ht="30" customHeight="1">
+      <c r="A66" s="2">
+        <v>44622</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" customHeight="1">
+      <c r="A67" s="2">
+        <v>44623</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30" customHeight="1">
+      <c r="A68" s="2">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" customHeight="1">
+      <c r="A69" s="2">
+        <v>44625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30" customHeight="1">
+      <c r="A70" s="2">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30" customHeight="1">
+      <c r="A71" s="2">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30" customHeight="1">
+      <c r="A72" s="2">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" customHeight="1">
+      <c r="A73" s="2">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30" customHeight="1">
+      <c r="A74" s="2">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" customHeight="1">
+      <c r="A75" s="2">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30" customHeight="1">
+      <c r="A76" s="2">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" customHeight="1">
+      <c r="A77" s="2">
+        <v>44633</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30" customHeight="1">
+      <c r="A78" s="2">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30" customHeight="1">
+      <c r="A79" s="2">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30" customHeight="1">
+      <c r="A80" s="2">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="30" customHeight="1">
+      <c r="A81" s="2">
+        <v>44637</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D098069-858A-1248-BF5A-32B85EBF294E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940D03AF-BB0D-1A4E-B945-FD0BB5226D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="3820" windowWidth="29920" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="3380" windowWidth="29920" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,10 @@
 SELECT contests.contest_id,contest_title,COUNT(contest_title) number FROM contests INNER JOIN scores ON contests.contest_id=scores.contest_id WHERE group_id = 3 GROUP BY contest_title
 更改后：
 SELECT contests.contest_id,contest_title,COUNT(scores_id) number FROM contests LEFT JOIN scores ON contests.contest_id=scores.contest_id WHERE group_id = 3 GROUP BY contest_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建前端后台界面：调整后台的路由跳转，点击导航出现tab标签页，根据地址栏自动添加标签页并选中，导航根据列表自动生成......</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +543,7 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1002,6 +1006,9 @@
       <c r="A71" s="2">
         <v>44627</v>
       </c>
+      <c r="B71" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="72" spans="1:2" ht="30" customHeight="1">
       <c r="A72" s="2">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940D03AF-BB0D-1A4E-B945-FD0BB5226D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631AD31E-686B-5B4F-8D5A-A059D30D8BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9480" yWindow="3380" windowWidth="29920" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>创建前端后台界面：调整后台的路由跳转，点击导航出现tab标签页，根据地址栏自动添加标签页并选中，导航根据列表自动生成......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改导航列表生成方式；修改数据库；修改管理页面：添加删除功能，添加审核状态功能。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1001,13 +1005,16 @@
       <c r="A70" s="2">
         <v>44626</v>
       </c>
+      <c r="B70" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="71" spans="1:2" ht="30" customHeight="1">
       <c r="A71" s="2">
         <v>44627</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="30" customHeight="1">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631AD31E-686B-5B4F-8D5A-A059D30D8BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902C67DB-2A6F-2946-91BA-F14E43C09293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="3380" windowWidth="29920" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11900" yWindow="5440" windowWidth="29920" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,7 +180,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改导航列表生成方式；修改数据库；修改管理页面：添加删除功能，添加审核状态功能。</t>
+    <t>修改导航列表生成方式；修改数据库；修改管理页面：添加删除功能，添加审核状态前台功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加比赛的审核功能，出现修改比赛之后，null不能更新到数据库，最终找到解决方案（在字段名上加上@TableField(updateStrategy = FieldStrategy.IGNORED)注解）。实现删除审核功能。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1021,6 +1025,9 @@
       <c r="A72" s="2">
         <v>44628</v>
       </c>
+      <c r="B72" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="73" spans="1:2" ht="30" customHeight="1">
       <c r="A73" s="2">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902C67DB-2A6F-2946-91BA-F14E43C09293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FE38C2-E9A7-E145-BE1B-C211AC23EA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11900" yWindow="5440" windowWidth="29920" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11420" yWindow="4040" windowWidth="29920" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,10 @@
   </si>
   <si>
     <t>添加比赛的审核功能，出现修改比赛之后，null不能更新到数据库，最终找到解决方案（在字段名上加上@TableField(updateStrategy = FieldStrategy.IGNORED)注解）。实现删除审核功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端后台页面完成用户组管理功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +555,7 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1033,6 +1037,9 @@
       <c r="A73" s="2">
         <v>44629</v>
       </c>
+      <c r="B73" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="74" spans="1:2" ht="30" customHeight="1">
       <c r="A74" s="2">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FE38C2-E9A7-E145-BE1B-C211AC23EA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B5873B-815B-F949-9D93-BA5D68C15BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="4040" windowWidth="29920" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29360" yWindow="8040" windowWidth="19560" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,10 @@
   </si>
   <si>
     <t>前端后台页面完成用户组管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计平均分配算法，将各个比赛的参赛者的评审权平均分配给审核人员。实现原理：根据组id查询用户列表（审核员数量）、查询比赛列表。将比赛列表进行循环，判断参赛人数是否为空，不为空则用参赛人数除以审核员数量，判断是否有余数，分别执行不同的方法生成map对象（以用户列表的审核员id为键的两个属性），将map对象以json文件的形式存储在用户目录下。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="B60" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1045,6 +1049,9 @@
       <c r="A74" s="2">
         <v>44630</v>
       </c>
+      <c r="B74" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="75" spans="1:2" ht="30" customHeight="1">
       <c r="A75" s="2">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Graduation_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B5873B-815B-F949-9D93-BA5D68C15BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700DABAE-AE39-47C2-B1C3-581361139F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29360" yWindow="8040" windowWidth="19560" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="2790" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,7 +192,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设计平均分配算法，将各个比赛的参赛者的评审权平均分配给审核人员。实现原理：根据组id查询用户列表（审核员数量）、查询比赛列表。将比赛列表进行循环，判断参赛人数是否为空，不为空则用参赛人数除以审核员数量，判断是否有余数，分别执行不同的方法生成map对象（以用户列表的审核员id为键的两个属性），将map对象以json文件的形式存储在用户目录下。</t>
+    <t>管理员评审比赛功能完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计平均分配算法，将各个比赛的参赛者的评审权平均分配给审核人员。实现原理：根据组id查询用户列表（审核员数量）、查询比赛列表。将比赛列表进行循环，判断参赛人数是否为空，不为空则用参赛人数除以审核员数量，判断是否有余数，分别执行不同的方法生成map对象（以用户列表的审核员id为键的两个属性），将map对象以json文件的形式存储在用户目录下。过程中碰到了静态类注入空指针的问题，最后需要自建一个set方法，并加上@Autowired注解，类加上@Component注解即可。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,18 +562,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="166.5" style="5" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="50" customHeight="1">
+    <row r="1" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -577,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1">
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44558</v>
       </c>
@@ -585,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1">
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44559</v>
       </c>
@@ -593,57 +597,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1">
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44560</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1">
+    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44561</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1">
+    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44562</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1">
+    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44563</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1">
+    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44564</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1">
+    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44565</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1">
+    <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44566</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1">
+    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44567</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1">
+    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44568</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1">
+    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44569</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1">
+    <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44570</v>
       </c>
@@ -651,7 +655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1">
+    <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44571</v>
       </c>
@@ -659,7 +663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1">
+    <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44572</v>
       </c>
@@ -667,7 +671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
+    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44573</v>
       </c>
@@ -675,7 +679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
+    <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44574</v>
       </c>
@@ -683,7 +687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
+    <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44575</v>
       </c>
@@ -691,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
+    <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44576</v>
       </c>
@@ -699,7 +703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1">
+    <row r="21" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44577</v>
       </c>
@@ -707,7 +711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1">
+    <row r="22" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44578</v>
       </c>
@@ -715,7 +719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1">
+    <row r="23" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44579</v>
       </c>
@@ -723,7 +727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1">
+    <row r="24" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44580</v>
       </c>
@@ -731,7 +735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" customHeight="1">
+    <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44581</v>
       </c>
@@ -739,7 +743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" customHeight="1">
+    <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44582</v>
       </c>
@@ -747,7 +751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" customHeight="1">
+    <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44583</v>
       </c>
@@ -755,7 +759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" customHeight="1">
+    <row r="28" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44584</v>
       </c>
@@ -763,7 +767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" customHeight="1">
+    <row r="29" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44585</v>
       </c>
@@ -771,62 +775,62 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" customHeight="1">
+    <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44586</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" customHeight="1">
+    <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44587</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" customHeight="1">
+    <row r="32" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44588</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" customHeight="1">
+    <row r="33" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44589</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" customHeight="1">
+    <row r="34" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44590</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" customHeight="1">
+    <row r="35" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44591</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" customHeight="1">
+    <row r="36" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44592</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30" customHeight="1">
+    <row r="37" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44593</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" customHeight="1">
+    <row r="38" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44594</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" customHeight="1">
+    <row r="39" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44595</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" customHeight="1">
+    <row r="40" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44596</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30" customHeight="1">
+    <row r="41" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44597</v>
       </c>
@@ -834,7 +838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" customHeight="1">
+    <row r="42" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44598</v>
       </c>
@@ -842,17 +846,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30" customHeight="1">
+    <row r="43" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44599</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" customHeight="1">
+    <row r="44" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44600</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" customHeight="1">
+    <row r="45" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44601</v>
       </c>
@@ -860,7 +864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" customHeight="1">
+    <row r="46" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44602</v>
       </c>
@@ -868,7 +872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" customHeight="1">
+    <row r="47" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44603</v>
       </c>
@@ -876,7 +880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30" customHeight="1">
+    <row r="48" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44604</v>
       </c>
@@ -884,7 +888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" customHeight="1">
+    <row r="49" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44605</v>
       </c>
@@ -892,7 +896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30" customHeight="1">
+    <row r="50" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>44606</v>
       </c>
@@ -900,7 +904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" customHeight="1">
+    <row r="51" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>44607</v>
       </c>
@@ -908,42 +912,42 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" customHeight="1">
+    <row r="52" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>44608</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30" customHeight="1">
+    <row r="53" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>44609</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30" customHeight="1">
+    <row r="54" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>44610</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30" customHeight="1">
+    <row r="55" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>44611</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="30" customHeight="1">
+    <row r="56" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44612</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" customHeight="1">
+    <row r="57" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44613</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" customHeight="1">
+    <row r="58" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44614</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" customHeight="1">
+    <row r="59" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44615</v>
       </c>
@@ -951,27 +955,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30" customHeight="1">
+    <row r="60" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>44616</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30" customHeight="1">
+    <row r="61" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>44617</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" customHeight="1">
+    <row r="62" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>44618</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30" customHeight="1">
+    <row r="63" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>44619</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30" customHeight="1">
+    <row r="64" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>44620</v>
       </c>
@@ -979,7 +983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="30" customHeight="1">
+    <row r="65" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>44621</v>
       </c>
@@ -987,7 +991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30" customHeight="1">
+    <row r="66" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>44622</v>
       </c>
@@ -995,7 +999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="30" customHeight="1">
+    <row r="67" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>44623</v>
       </c>
@@ -1003,17 +1007,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="30" customHeight="1">
+    <row r="68" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>44624</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30" customHeight="1">
+    <row r="69" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>44625</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30" customHeight="1">
+    <row r="70" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>44626</v>
       </c>
@@ -1021,7 +1025,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30" customHeight="1">
+    <row r="71" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>44627</v>
       </c>
@@ -1029,7 +1033,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30" customHeight="1">
+    <row r="72" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>44628</v>
       </c>
@@ -1037,7 +1041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="30" customHeight="1">
+    <row r="73" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>44629</v>
       </c>
@@ -1045,45 +1049,48 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="30" customHeight="1">
+    <row r="74" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>44630</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="30" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>44631</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="30" customHeight="1">
+    <row r="76" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>44632</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30" customHeight="1">
+    <row r="77" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>44633</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="30" customHeight="1">
+      <c r="B77" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>44634</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="30" customHeight="1">
+    <row r="79" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>44635</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="30" customHeight="1">
+    <row r="80" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>44636</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="30" customHeight="1">
+    <row r="81" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>44637</v>
       </c>

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Graduation_Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700DABAE-AE39-47C2-B1C3-581361139F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19D5DE4-020F-8A44-A184-36FE744EA5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2790" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13040" yWindow="3660" windowWidth="34960" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,10 @@
   </si>
   <si>
     <t>设计平均分配算法，将各个比赛的参赛者的评审权平均分配给审核人员。实现原理：根据组id查询用户列表（审核员数量）、查询比赛列表。将比赛列表进行循环，判断参赛人数是否为空，不为空则用参赛人数除以审核员数量，判断是否有余数，分别执行不同的方法生成map对象（以用户列表的审核员id为键的两个属性），将map对象以json文件的形式存储在用户目录下。过程中碰到了静态类注入空指针的问题，最后需要自建一个set方法，并加上@Autowired注解，类加上@Component注解即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改登录方式，采用jwt技术实现登录。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,25 +264,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,539 +561,872 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="166.5" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="166.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="50" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:2" ht="30" customHeight="1">
+      <c r="A2" s="5">
         <v>44558</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:2" ht="30" customHeight="1">
+      <c r="A3" s="5">
         <v>44559</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:2" ht="30" customHeight="1">
+      <c r="A4" s="5">
         <v>44560</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:2" ht="30" customHeight="1">
+      <c r="A5" s="5">
         <v>44561</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:2" ht="30" customHeight="1">
+      <c r="A6" s="5">
         <v>44562</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:2" ht="30" customHeight="1">
+      <c r="A7" s="5">
         <v>44563</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:2" ht="30" customHeight="1">
+      <c r="A8" s="5">
         <v>44564</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:2" ht="30" customHeight="1">
+      <c r="A9" s="5">
         <v>44565</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:2" ht="30" customHeight="1">
+      <c r="A10" s="5">
         <v>44566</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:2" ht="30" customHeight="1">
+      <c r="A11" s="5">
         <v>44567</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:2" ht="30" customHeight="1">
+      <c r="A12" s="5">
         <v>44568</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:2" ht="30" customHeight="1">
+      <c r="A13" s="5">
         <v>44569</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:2" ht="30" customHeight="1">
+      <c r="A14" s="5">
         <v>44570</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15" spans="1:2" ht="30" customHeight="1">
+      <c r="A15" s="5">
         <v>44571</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:2" ht="30" customHeight="1">
+      <c r="A16" s="5">
         <v>44572</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="5">
         <v>44573</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="5">
         <v>44574</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="5">
         <v>44575</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="5">
         <v>44576</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="5">
         <v>44577</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="5">
         <v>44578</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="5">
         <v>44579</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="5">
         <v>44580</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="5">
         <v>44581</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="5">
         <v>44582</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="5">
         <v>44583</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="5">
         <v>44584</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="5">
         <v>44585</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="5">
         <v>44586</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="5">
         <v>44587</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="5">
         <v>44588</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="5">
         <v>44589</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="5">
         <v>44590</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="5">
         <v>44591</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="5">
         <v>44592</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="5">
         <v>44593</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="5">
         <v>44594</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="5">
         <v>44595</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="5">
         <v>44596</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+    <row r="41" spans="1:2" ht="30" customHeight="1">
+      <c r="A41" s="5">
         <v>44597</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+    <row r="42" spans="1:2" ht="30" customHeight="1">
+      <c r="A42" s="5">
         <v>44598</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+    <row r="43" spans="1:2" ht="30" customHeight="1">
+      <c r="A43" s="5">
         <v>44599</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+    <row r="44" spans="1:2" ht="30" customHeight="1">
+      <c r="A44" s="5">
         <v>44600</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+    <row r="45" spans="1:2" ht="30" customHeight="1">
+      <c r="A45" s="5">
         <v>44601</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+    <row r="46" spans="1:2" ht="30" customHeight="1">
+      <c r="A46" s="5">
         <v>44602</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+    <row r="47" spans="1:2" ht="30" customHeight="1">
+      <c r="A47" s="5">
         <v>44603</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+    <row r="48" spans="1:2" ht="30" customHeight="1">
+      <c r="A48" s="5">
         <v>44604</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+    <row r="49" spans="1:2" ht="30" customHeight="1">
+      <c r="A49" s="5">
         <v>44605</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+    <row r="50" spans="1:2" ht="30" customHeight="1">
+      <c r="A50" s="5">
         <v>44606</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+    <row r="51" spans="1:2" ht="30" customHeight="1">
+      <c r="A51" s="5">
         <v>44607</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+    <row r="52" spans="1:2" ht="30" customHeight="1">
+      <c r="A52" s="5">
         <v>44608</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+    <row r="53" spans="1:2" ht="30" customHeight="1">
+      <c r="A53" s="5">
         <v>44609</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+    <row r="54" spans="1:2" ht="30" customHeight="1">
+      <c r="A54" s="5">
         <v>44610</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+    <row r="55" spans="1:2" ht="30" customHeight="1">
+      <c r="A55" s="5">
         <v>44611</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+    <row r="56" spans="1:2" ht="30" customHeight="1">
+      <c r="A56" s="5">
         <v>44612</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+    <row r="57" spans="1:2" ht="30" customHeight="1">
+      <c r="A57" s="5">
         <v>44613</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+    <row r="58" spans="1:2" ht="30" customHeight="1">
+      <c r="A58" s="5">
         <v>44614</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+    <row r="59" spans="1:2" ht="30" customHeight="1">
+      <c r="A59" s="5">
         <v>44615</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+    <row r="60" spans="1:2" ht="30" customHeight="1">
+      <c r="A60" s="5">
         <v>44616</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+    <row r="61" spans="1:2" ht="30" customHeight="1">
+      <c r="A61" s="5">
         <v>44617</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+    <row r="62" spans="1:2" ht="30" customHeight="1">
+      <c r="A62" s="5">
         <v>44618</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+    <row r="63" spans="1:2" ht="30" customHeight="1">
+      <c r="A63" s="5">
         <v>44619</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+    <row r="64" spans="1:2" ht="30" customHeight="1">
+      <c r="A64" s="5">
         <v>44620</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+    <row r="65" spans="1:2" ht="30" customHeight="1">
+      <c r="A65" s="5">
         <v>44621</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
+    <row r="66" spans="1:2" ht="30" customHeight="1">
+      <c r="A66" s="5">
         <v>44622</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+    <row r="67" spans="1:2" ht="136" customHeight="1">
+      <c r="A67" s="5">
         <v>44623</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+    <row r="68" spans="1:2" ht="30" customHeight="1">
+      <c r="A68" s="5">
         <v>44624</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+    <row r="69" spans="1:2" ht="30" customHeight="1">
+      <c r="A69" s="5">
         <v>44625</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+    <row r="70" spans="1:2" ht="30" customHeight="1">
+      <c r="A70" s="5">
         <v>44626</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+    <row r="71" spans="1:2" ht="30" customHeight="1">
+      <c r="A71" s="5">
         <v>44627</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+    <row r="72" spans="1:2" ht="30" customHeight="1">
+      <c r="A72" s="5">
         <v>44628</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+    <row r="73" spans="1:2" ht="30" customHeight="1">
+      <c r="A73" s="5">
         <v>44629</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
+    <row r="74" spans="1:2" ht="70" customHeight="1">
+      <c r="A74" s="5">
         <v>44630</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+    <row r="75" spans="1:2" ht="30" customHeight="1">
+      <c r="A75" s="5">
         <v>44631</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
+    <row r="76" spans="1:2" ht="30" customHeight="1">
+      <c r="A76" s="5">
         <v>44632</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
+    <row r="77" spans="1:2" ht="30" customHeight="1">
+      <c r="A77" s="5">
         <v>44633</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+    <row r="78" spans="1:2" ht="30" customHeight="1">
+      <c r="A78" s="5">
         <v>44634</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+    <row r="79" spans="1:2" ht="30" customHeight="1">
+      <c r="A79" s="5">
         <v>44635</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
+    <row r="80" spans="1:2" ht="30" customHeight="1">
+      <c r="A80" s="5">
         <v>44636</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
+    <row r="81" spans="1:2" ht="30" customHeight="1">
+      <c r="A81" s="5">
         <v>44637</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="30" customHeight="1">
+      <c r="A82" s="5">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30" customHeight="1">
+      <c r="A83" s="5">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30" customHeight="1">
+      <c r="A84" s="5">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30" customHeight="1">
+      <c r="A85" s="5">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30" customHeight="1">
+      <c r="A86" s="5">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30" customHeight="1">
+      <c r="A87" s="5">
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30" customHeight="1">
+      <c r="A88" s="5">
+        <v>44644</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="30" customHeight="1">
+      <c r="A89" s="5">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30" customHeight="1">
+      <c r="A90" s="5">
+        <v>44646</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="30" customHeight="1">
+      <c r="A91" s="5">
+        <v>44647</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30" customHeight="1">
+      <c r="A92" s="5">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30" customHeight="1">
+      <c r="A93" s="5">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="30" customHeight="1">
+      <c r="A94" s="5">
+        <v>44650</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="30" customHeight="1">
+      <c r="A95" s="5">
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30" customHeight="1">
+      <c r="A96" s="5">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="30" customHeight="1">
+      <c r="A97" s="5">
+        <v>44653</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="30" customHeight="1">
+      <c r="A98" s="5">
+        <v>44654</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="30" customHeight="1">
+      <c r="A99" s="5">
+        <v>44655</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="30" customHeight="1">
+      <c r="A100" s="5">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="30" customHeight="1">
+      <c r="A101" s="5">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="30" customHeight="1">
+      <c r="A102" s="5">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="30" customHeight="1">
+      <c r="A103" s="5">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="30" customHeight="1">
+      <c r="A104" s="5">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="30" customHeight="1">
+      <c r="A105" s="5">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="30" customHeight="1">
+      <c r="A106" s="5">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="30" customHeight="1">
+      <c r="A107" s="5">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="30" customHeight="1">
+      <c r="A108" s="5">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="30" customHeight="1">
+      <c r="A109" s="5">
+        <v>44665</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="30" customHeight="1">
+      <c r="A110" s="5">
+        <v>44666</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="30" customHeight="1">
+      <c r="A111" s="5">
+        <v>44667</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="30" customHeight="1">
+      <c r="A112" s="5">
+        <v>44668</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="30" customHeight="1">
+      <c r="A113" s="5">
+        <v>44669</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="30" customHeight="1">
+      <c r="A114" s="5">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="30" customHeight="1">
+      <c r="A115" s="5">
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="30" customHeight="1">
+      <c r="A116" s="5">
+        <v>44672</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="30" customHeight="1">
+      <c r="A117" s="5">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="30" customHeight="1">
+      <c r="A118" s="5">
+        <v>44674</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="30" customHeight="1">
+      <c r="A119" s="5">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="30" customHeight="1">
+      <c r="A120" s="5">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="30" customHeight="1">
+      <c r="A121" s="5">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="30" customHeight="1">
+      <c r="A122" s="5">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="30" customHeight="1">
+      <c r="A123" s="5">
+        <v>44679</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="30" customHeight="1">
+      <c r="A124" s="5">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="30" customHeight="1">
+      <c r="A125" s="5">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="30" customHeight="1">
+      <c r="A126" s="5">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="30" customHeight="1">
+      <c r="A127" s="5">
+        <v>44683</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="30" customHeight="1">
+      <c r="A128" s="5">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="30" customHeight="1">
+      <c r="A129" s="5">
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="30" customHeight="1">
+      <c r="A130" s="5">
+        <v>44686</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="30" customHeight="1">
+      <c r="A131" s="5">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="30" customHeight="1">
+      <c r="A132" s="5">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="30" customHeight="1">
+      <c r="A133" s="5">
+        <v>44689</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="30" customHeight="1">
+      <c r="A134" s="5">
+        <v>44690</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="30" customHeight="1">
+      <c r="A135" s="5">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="30" customHeight="1">
+      <c r="A136" s="5">
+        <v>44692</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="30" customHeight="1">
+      <c r="A137" s="5">
+        <v>44693</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="30" customHeight="1">
+      <c r="A138" s="5">
+        <v>44694</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="30" customHeight="1">
+      <c r="A139" s="5">
+        <v>44695</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="30" customHeight="1">
+      <c r="A140" s="5">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="30" customHeight="1">
+      <c r="A141" s="5">
+        <v>44697</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="30" customHeight="1">
+      <c r="A142" s="5">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="30" customHeight="1">
+      <c r="A143" s="5">
+        <v>44699</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="30" customHeight="1">
+      <c r="A144" s="5">
+        <v>44700</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="30" customHeight="1">
+      <c r="A145" s="5">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="30" customHeight="1">
+      <c r="A146" s="5">
+        <v>44702</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="30" customHeight="1">
+      <c r="A147" s="5">
+        <v>44703</v>
       </c>
     </row>
   </sheetData>

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19D5DE4-020F-8A44-A184-36FE744EA5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1F9244-EC16-FE4F-AEF5-8B0DD04E8637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13040" yWindow="3660" windowWidth="34960" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="日期批注" sheetId="2" r:id="rId1"/>
+    <sheet name="日期内容" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +34,392 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AD4D2438-E01C-B546-AB85-B57060B6AF4D}</author>
+    <author>tc={030697AF-0FE6-C544-9949-C44037E0BB35}</author>
+    <author>tc={9121FF35-4979-5945-ADFF-D9B6FB724398}</author>
+    <author>tc={86D3CBA4-0B4D-164B-92C3-C506BFF4B4A2}</author>
+    <author>tc={6E32E99E-4FD5-1B44-8696-0E6AE3AF737E}</author>
+    <author>tc={00A3619B-F715-D14A-BE79-432C8E460D39}</author>
+    <author>tc={EF2AAC44-05FE-BF4D-8F43-0AA7C39D7128}</author>
+    <author>tc={3457D6C7-9E7C-BE4F-80B0-7F41ED13DA6F}</author>
+    <author>tc={F93EE9E8-E7E3-A242-9DFC-2ED3FB11218E}</author>
+    <author>tc={9E62800C-6F40-F44F-B2EE-FEBD6C6DBFE5}</author>
+    <author>tc={564B8EC4-B20C-D044-8E52-5C57286B8B8D}</author>
+    <author>tc={F031C95D-FEAC-EF42-A54D-2BF0FE994979}</author>
+    <author>tc={802FFE12-29DF-5941-813E-6C1AA4469421}</author>
+    <author>tc={8F75D536-ED40-7049-A868-57704A33B349}</author>
+    <author>tc={BE5AC70B-6CB6-4C40-B813-74B30B1C745A}</author>
+    <author>tc={EF39E827-BA3F-494C-874D-0A45A1318954}</author>
+    <author>tc={142174E6-5D8C-3043-895E-FB2016B54AC6}</author>
+    <author>tc={38075603-F382-C541-A93C-8E73B7B7EE61}</author>
+    <author>tc={7B49779A-B5D2-1740-844B-FDA320D348B9}</author>
+    <author>tc={F037ABA5-3BC0-764F-9E09-75B98701CB10}</author>
+    <author>tc={023D5A0F-D5BD-0B47-B8B8-E9ADDD027AC5}</author>
+    <author>tc={059CB512-6C31-C24F-897D-CEBB1933258B}</author>
+    <author>tc={669F3DBA-D2DC-6C43-AB3A-5CA2E28C3BEC}</author>
+    <author>tc={E70FC121-2D4C-6E42-B603-7C05C357F52A}</author>
+    <author>tc={1AC97449-A41A-2341-A04B-EE2F329391F4}</author>
+    <author>tc={4C7DB6FF-4D64-BF44-9362-FE5E67A5C19E}</author>
+    <author>tc={E33834DE-6EB1-B146-9680-214A761C0D96}</author>
+    <author>tc={93FCDCBD-8B60-374C-A95D-43E19A0A94F4}</author>
+    <author>tc={8F7C4343-C531-4941-AC0F-E5C63DF51FB3}</author>
+    <author>tc={63077DA5-FC9E-3749-85DC-19B4CB774229}</author>
+    <author>tc={C1D6DCA9-02AC-FB43-AF82-41048FDB11A3}</author>
+    <author>tc={2497A436-46C6-5F43-B305-CC0C9F99962C}</author>
+    <author>tc={A6F918D8-0605-764F-A377-5BF147C64C98}</author>
+    <author>tc={2B13204B-F1A7-BB4C-9DE5-622AB9709951}</author>
+    <author>tc={3E6BD415-E666-764F-BE4D-5409F602FDA9}</author>
+    <author>tc={612B1767-427E-B448-A1EE-41DDB60D0C59}</author>
+    <author>tc={4272F01C-0DF8-CF45-BDB1-94CA993BE216}</author>
+    <author>tc={86C5C0D7-5F02-EB4D-8EF1-9FE2FB2D9543}</author>
+    <author>tc={BAA30DD3-4590-F24A-AFFD-594DACC3EEB5}</author>
+    <author>tc={DAEED059-109A-5C46-9C05-2EFB574C3B1E}</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{AD4D2438-E01C-B546-AB85-B57060B6AF4D}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    开始设计数据库</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{030697AF-0FE6-C544-9949-C44037E0BB35}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    完成数据库的设计</t>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="2" shapeId="0" xr:uid="{9121FF35-4979-5945-ADFF-D9B6FB724398}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    学习springboot整合mybatis和mybatis-plus</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{86D3CBA4-0B4D-164B-92C3-C506BFF4B4A2}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    使用mybatis-plus，设计后端users表的链表分页查询功能，项目发布到github</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="4" shapeId="0" xr:uid="{6E32E99E-4FD5-1B44-8696-0E6AE3AF737E}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    后台查询users表的相关操作，完成users表的链表分页查询功能，优化数据库</t>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="5" shapeId="0" xr:uid="{00A3619B-F715-D14A-BE79-432C8E460D39}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    修复users表的链表分页查询功能按照groups表id排序的问题；登录功能的设计，完成后端登录功能，验证码功能</t>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="6" shapeId="0" xr:uid="{EF2AAC44-05FE-BF4D-8F43-0AA7C39D7128}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    前端登录页面设计，输入手机号或者邮箱中的任意一个即可登录，输入框的验证的功能；前后端配合验证登录功能。</t>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="7" shapeId="0" xr:uid="{3457D6C7-9E7C-BE4F-80B0-7F41ED13DA6F}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    修改前端页面逻辑，实现输入框的验证，修复手机登录会提示邮箱输入为空和邮箱登录提示手机为空的bug，完成完成登录功能。学习vue，编写首页基础代码</t>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="8" shapeId="0" xr:uid="{F93EE9E8-E7E3-A242-9DFC-2ED3FB11218E}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    学习vue，编写前端页面代码，完成首页的导航栏样式</t>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="9" shapeId="0" xr:uid="{9E62800C-6F40-F44F-B2EE-FEBD6C6DBFE5}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    学习vue路由设置，通过路由完成首页导航栏的跳转功能，登录页面验证码功能的实现（通过session传入时间戳作为key，验证码作为value来验证）</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="10" shapeId="0" xr:uid="{564B8EC4-B20C-D044-8E52-5C57286B8B8D}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    编写前端注册页面代码，完成样式以及部分逻辑。完成后端根据组编码查询功能，联动前端测试成功。</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="11" shapeId="0" xr:uid="{F031C95D-FEAC-EF42-A54D-2BF0FE994979}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    修改前端注册页面代码，完善逻辑。完成后端查询手机号和邮箱是否存在，联动前端测试成功。修改选择身份功能遇到实现插入数据返回id的困难没解决完成。</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="12" shapeId="0" xr:uid="{802FFE12-29DF-5941-813E-6C1AA4469421}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    完善登录功能；完成注册功能；美化顶部，底部前端页面；修改路由发生变化，标题随之变化；完善后台登录注册逻辑。</t>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="13" shapeId="0" xr:uid="{8F75D536-ED40-7049-A868-57704A33B349}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    编写前端主页代码，设置路由淡入淡出过渡动画。调整前端页面的目录结构，使其更加直观。</t>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="14" shapeId="0" xr:uid="{BE5AC70B-6CB6-4C40-B813-74B30B1C745A}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    编写发布比赛的前端页面，实现后台数据传输。碰到springboot解析转义符的问题没解决\n不能存入数据库。</t>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="15" shapeId="0" xr:uid="{EF39E827-BA3F-494C-874D-0A45A1318954}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    完善首页页面；设计比赛详情页面。</t>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="16" shapeId="0" xr:uid="{142174E6-5D8C-3043-895E-FB2016B54AC6}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    优化比赛详情页面，显示相应的内容。</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="17" shapeId="0" xr:uid="{38075603-F382-C541-A93C-8E73B7B7EE61}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    修复跳转子页面而导航菜单无选中效果的问题；报名比赛前后台功能逻辑实现。</t>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="18" shapeId="0" xr:uid="{7B49779A-B5D2-1740-844B-FDA320D348B9}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    比赛详细页面功能实现。</t>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="19" shapeId="0" xr:uid="{F037ABA5-3BC0-764F-9E09-75B98701CB10}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    更新部分md文档，完成首页和发现比赛列表组件</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="20" shapeId="0" xr:uid="{023D5A0F-D5BD-0B47-B8B8-E9ADDD027AC5}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    个人中心页面功能实现，优化比赛详细页面逻辑。</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="21" shapeId="0" xr:uid="{059CB512-6C31-C24F-897D-CEBB1933258B}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    解决路由重复冗余报错；修改个人中心页面；设计并完成比赛结果页面；调整前端目录结构。</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="22" shapeId="0" xr:uid="{669F3DBA-D2DC-6C43-AB3A-5CA2E28C3BEC}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    解决后端传前端时间变成时间戳的问题；完成首页公告模块代码编写；设计并完成公告中心和公告详情页面；md插件报错问题解决不了。</t>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="23" shapeId="0" xr:uid="{E70FC121-2D4C-6E42-B603-7C05C357F52A}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    消息功能未完全实现；目前遇到不可解决的问题：如果在消息详情页面，再次点击消息内容不变，只会改变url。修复问题，优化未读消息实时显示。</t>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="24" shapeId="0" xr:uid="{1AC97449-A41A-2341-A04B-EE2F329391F4}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    优化比赛详情页面（报名之后发送一条消息，并刷新消息列表和未读消息数量）、顶部用户组件、个人信息页面、消息详情页面、导航组件；完成活动搜索功能；重新设计发布页面。</t>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="25" shapeId="0" xr:uid="{4C7DB6FF-4D64-BF44-9362-FE5E67A5C19E}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    修改整体过渡动画；重新设计发布页面；设计并完成发布页面下列的比赛列表页面；设计出发送消息页面。</t>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="26" shapeId="0" xr:uid="{E33834DE-6EB1-B146-9680-214A761C0D96}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    完成评审页面；修改发布消息页面、发布比赛页面、消息详情页面、比赛详情页面、个人中心页面。</t>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="27" shapeId="0" xr:uid="{93FCDCBD-8B60-374C-A95D-43E19A0A94F4}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    修改前端代码，把sessionStorage存储的用户信息改为用vuex存储。另外后期会把localStorage存储的用户信息改为只存储用户账号密码的密文。</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="28" shapeId="0" xr:uid="{8F7C4343-C531-4941-AC0F-E5C63DF51FB3}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    重新设计自动登录功能，数据库采用md5加密方式存储密码，前端同样采用md5加密方式存储在localStorage。存在bug：前端部分组件加载后获取不到存储在vuex里的用户信息。</t>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="29" shapeId="0" xr:uid="{63077DA5-FC9E-3749-85DC-19B4CB774229}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    重新设计发布页面：将发布页面更改为管理页面，重新设计管理页面路由，以及管理默认页；获取数据方式由sessionStorage改为vuex；</t>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="30" shapeId="0" xr:uid="{C1D6DCA9-02AC-FB43-AF82-41048FDB11A3}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    完成管理页面下的添加比赛和修改比赛功能。</t>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="31" shapeId="0" xr:uid="{2497A436-46C6-5F43-B305-CC0C9F99962C}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    新增消息删除功能和删除所有已读功能；修复添加比赛后，返回比赛列表不显示新发布的比赛，检测到是由于sql语句不严谨导致，内连接只显示关联的数据，更换为左连接，分组字段改为contest_id，查询字段COUNT(contest_title)改为COUNT(scores_id) 即可。
+更改前：
+SELECT contests.contest_id,contest_title,COUNT(contest_title) number FROM contests INNER JOIN scores ON contests.contest_id=scores.contest_id WHERE group_id = 3 GROUP BY contest_title
+更改后：
+SELECT contests.contest_id,contest_title,COUNT(scores_id) number FROM contests LEFT JOIN scores ON contests.contest_id=scores.contest_id WHERE group_id = 3 GROUP BY contest_id</t>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="32" shapeId="0" xr:uid="{A6F918D8-0605-764F-A377-5BF147C64C98}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    创建前端后台界面：调整后台的路由跳转，点击导航出现tab标签页，根据地址栏自动添加标签页并选中，导航根据列表自动生成......</t>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="33" shapeId="0" xr:uid="{2B13204B-F1A7-BB4C-9DE5-622AB9709951}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    修改导航列表生成方式；修改数据库；修改管理页面：添加删除功能，添加审核状态前台功能。</t>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="34" shapeId="0" xr:uid="{3E6BD415-E666-764F-BE4D-5409F602FDA9}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    添加比赛的审核功能，出现修改比赛之后，null不能更新到数据库，最终找到解决方案（在字段名上加上@TableField(updateStrategy = FieldStrategy.IGNORED)注解）。实现删除审核功能。</t>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="35" shapeId="0" xr:uid="{612B1767-427E-B448-A1EE-41DDB60D0C59}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    前端后台页面完成用户组管理功能</t>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="36" shapeId="0" xr:uid="{4272F01C-0DF8-CF45-BDB1-94CA993BE216}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    设计平均分配算法，将各个比赛的参赛者的评审权平均分配给审核人员。实现原理：根据组id查询用户列表（审核员数量）、查询比赛列表。将比赛列表进行循环，判断参赛人数是否为空，不为空则用参赛人数除以审核员数量，判断是否有余数，分别执行不同的方法生成map对象（以用户列表的审核员id为键的两个属性），将map对象以json文件的形式存储在用户目录下。过程中碰到了静态类注入空指针的问题，最后需要自建一个set方法，并加上@Autowired注解，类加上@Component注解即可。</t>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="37" shapeId="0" xr:uid="{86C5C0D7-5F02-EB4D-8EF1-9FE2FB2D9543}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    管理员评审比赛功能完成。</t>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="38" shapeId="0" xr:uid="{BAA30DD3-4590-F24A-AFFD-594DACC3EEB5}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    更改登录方式，采用jwt技术实现登录。</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="39" shapeId="0" xr:uid="{DAEED059-109A-5C46-9C05-2EFB574C3B1E}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    设计并完成用户管理页面；
+解决多次加载mounted的问题（tags有多少个，切换到标签页的时候mounted就加载几次），解决方案：
+&lt;el-tabs v-model=""activeIndex"" type=""border-card"" v-show=""tabs.length"" @tab-click='clickTab' @tab-remove='removeTab'&gt;
+    &lt;el-tab-pane v-for=""item in tabs"" :key=""item.name"" :label=""item.name"" :name=""item.route"" :closable=""item.name !=='首页'""&gt;
+        &lt;router-view/&gt;
+    &lt;/el-tab-pane&gt;
+&lt;/el-tabs&gt;
+改为：
+&lt;el-tabs v-model=""activeIndex"" type=""border-card"" v-show=""tabs.length"" @tab-click='clickTab' @tab-remove='removeTab'&gt;
+    &lt;el-tab-pane v-for=""item in tabs"" :key=""item.name"" :label=""item.name"" :name=""item.route"" :closable=""item.name !=='首页'""&gt;&lt;/el-tab-pane&gt;
+    &lt;router-view/&gt;
+&lt;/el-tabs&gt;</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +586,46 @@
   </si>
   <si>
     <t>更改登录方式，采用jwt技术实现登录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>星期一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>设计并完成用户管理页面；
+解决多次加载mounted的问题（tags有多少个，切换到标签页的时候mounted就加载几次），解决方案：
+&lt;el-tabs v-model="activeIndex" type="border-card" v-show="tabs.length" @tab-click='clickTab' @tab-remove='removeTab'&gt;
+    &lt;el-tab-pane v-for="item in tabs" :key="item.name" :label="item.name" :name="item.route" :closable="item.name !=='首页'"&gt;
+        &lt;router-view/&gt;
+    &lt;/el-tab-pane&gt;
+&lt;/el-tabs&gt;
+改为：
+&lt;el-tabs v-model="activeIndex" type="border-card" v-show="tabs.length" @tab-click='clickTab' @tab-remove='removeTab'&gt;
+    &lt;el-tab-pane v-for="item in tabs" :key="item.name" :label="item.name" :name="item.route" :closable="item.name !=='首页'"&gt;&lt;/el-tab-pane&gt;
+    &lt;router-view/&gt;
+&lt;/el-tabs&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +636,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,16 +668,50 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF98C379"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -260,11 +719,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -281,9 +758,27 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -296,6 +791,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="张恣豪" id="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" userId="S::zhangguapi@ncov.office.gy::8c935a8f-115f-403d-92e3-ec663b71b01b" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,11 +1060,533 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B2" dT="2022-03-28T15:45:42.15" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{AD4D2438-E01C-B546-AB85-B57060B6AF4D}">
+    <text>开始设计数据库</text>
+  </threadedComment>
+  <threadedComment ref="C2" dT="2022-03-28T15:46:08.42" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{030697AF-0FE6-C544-9949-C44037E0BB35}">
+    <text>完成数据库的设计</text>
+  </threadedComment>
+  <threadedComment ref="G3" dT="2022-03-28T15:46:20.24" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{9121FF35-4979-5945-ADFF-D9B6FB724398}">
+    <text>学习springboot整合mybatis和mybatis-plus</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2022-03-28T15:46:31.01" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{86D3CBA4-0B4D-164B-92C3-C506BFF4B4A2}">
+    <text>使用mybatis-plus，设计后端users表的链表分页查询功能，项目发布到github</text>
+  </threadedComment>
+  <threadedComment ref="B4" dT="2022-03-28T15:46:41.87" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{6E32E99E-4FD5-1B44-8696-0E6AE3AF737E}">
+    <text>后台查询users表的相关操作，完成users表的链表分页查询功能，优化数据库</text>
+  </threadedComment>
+  <threadedComment ref="C4" dT="2022-03-28T15:46:51.53" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{00A3619B-F715-D14A-BE79-432C8E460D39}">
+    <text>修复users表的链表分页查询功能按照groups表id排序的问题；登录功能的设计，完成后端登录功能，验证码功能</text>
+  </threadedComment>
+  <threadedComment ref="D4" dT="2022-03-28T15:46:59.04" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{EF2AAC44-05FE-BF4D-8F43-0AA7C39D7128}">
+    <text>前端登录页面设计，输入手机号或者邮箱中的任意一个即可登录，输入框的验证的功能；前后端配合验证登录功能。</text>
+  </threadedComment>
+  <threadedComment ref="E4" dT="2022-03-28T15:47:06.97" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{3457D6C7-9E7C-BE4F-80B0-7F41ED13DA6F}">
+    <text>修改前端页面逻辑，实现输入框的验证，修复手机登录会提示邮箱输入为空和邮箱登录提示手机为空的bug，完成完成登录功能。学习vue，编写首页基础代码</text>
+  </threadedComment>
+  <threadedComment ref="F4" dT="2022-03-28T15:47:14.56" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{F93EE9E8-E7E3-A242-9DFC-2ED3FB11218E}">
+    <text>学习vue，编写前端页面代码，完成首页的导航栏样式</text>
+  </threadedComment>
+  <threadedComment ref="G4" dT="2022-03-28T15:47:21.42" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{9E62800C-6F40-F44F-B2EE-FEBD6C6DBFE5}">
+    <text>学习vue路由设置，通过路由完成首页导航栏的跳转功能，登录页面验证码功能的实现（通过session传入时间戳作为key，验证码作为value来验证）</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2022-03-28T15:47:32.97" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{564B8EC4-B20C-D044-8E52-5C57286B8B8D}">
+    <text>编写前端注册页面代码，完成样式以及部分逻辑。完成后端根据组编码查询功能，联动前端测试成功。</text>
+  </threadedComment>
+  <threadedComment ref="B5" dT="2022-03-28T15:47:39.54" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{F031C95D-FEAC-EF42-A54D-2BF0FE994979}">
+    <text>修改前端注册页面代码，完善逻辑。完成后端查询手机号和邮箱是否存在，联动前端测试成功。修改选择身份功能遇到实现插入数据返回id的困难没解决完成。</text>
+  </threadedComment>
+  <threadedComment ref="C5" dT="2022-03-28T15:47:47.47" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{802FFE12-29DF-5941-813E-6C1AA4469421}">
+    <text>完善登录功能；完成注册功能；美化顶部，底部前端页面；修改路由发生变化，标题随之变化；完善后台登录注册逻辑。</text>
+  </threadedComment>
+  <threadedComment ref="D5" dT="2022-03-28T15:47:53.77" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{8F75D536-ED40-7049-A868-57704A33B349}">
+    <text>编写前端主页代码，设置路由淡入淡出过渡动画。调整前端页面的目录结构，使其更加直观。</text>
+  </threadedComment>
+  <threadedComment ref="E5" dT="2022-03-28T15:48:00.61" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{BE5AC70B-6CB6-4C40-B813-74B30B1C745A}">
+    <text>编写发布比赛的前端页面，实现后台数据传输。碰到springboot解析转义符的问题没解决\n不能存入数据库。</text>
+  </threadedComment>
+  <threadedComment ref="F5" dT="2022-03-28T15:48:07.79" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{EF39E827-BA3F-494C-874D-0A45A1318954}">
+    <text>完善首页页面；设计比赛详情页面。</text>
+  </threadedComment>
+  <threadedComment ref="G5" dT="2022-03-28T15:48:14.94" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{142174E6-5D8C-3043-895E-FB2016B54AC6}">
+    <text>优化比赛详情页面，显示相应的内容。</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2022-03-28T15:48:22.14" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{38075603-F382-C541-A93C-8E73B7B7EE61}">
+    <text>修复跳转子页面而导航菜单无选中效果的问题；报名比赛前后台功能逻辑实现。</text>
+  </threadedComment>
+  <threadedComment ref="F7" dT="2022-03-28T15:48:31.76" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{7B49779A-B5D2-1740-844B-FDA320D348B9}">
+    <text>比赛详细页面功能实现。</text>
+  </threadedComment>
+  <threadedComment ref="G7" dT="2022-03-28T15:48:39.89" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{F037ABA5-3BC0-764F-9E09-75B98701CB10}">
+    <text>更新部分md文档，完成首页和发现比赛列表组件</text>
+  </threadedComment>
+  <threadedComment ref="C8" dT="2022-03-28T15:49:05.34" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{023D5A0F-D5BD-0B47-B8B8-E9ADDD027AC5}">
+    <text>个人中心页面功能实现，优化比赛详细页面逻辑。</text>
+  </threadedComment>
+  <threadedComment ref="D8" dT="2022-03-28T15:49:12.82" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{059CB512-6C31-C24F-897D-CEBB1933258B}">
+    <text>解决路由重复冗余报错；修改个人中心页面；设计并完成比赛结果页面；调整前端目录结构。</text>
+  </threadedComment>
+  <threadedComment ref="E8" dT="2022-03-28T15:49:19.97" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{669F3DBA-D2DC-6C43-AB3A-5CA2E28C3BEC}">
+    <text>解决后端传前端时间变成时间戳的问题；完成首页公告模块代码编写；设计并完成公告中心和公告详情页面；md插件报错问题解决不了。</text>
+  </threadedComment>
+  <threadedComment ref="F8" dT="2022-03-28T15:49:26.39" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{E70FC121-2D4C-6E42-B603-7C05C357F52A}">
+    <text>消息功能未完全实现；目前遇到不可解决的问题：如果在消息详情页面，再次点击消息内容不变，只会改变url。修复问题，优化未读消息实时显示。</text>
+  </threadedComment>
+  <threadedComment ref="G8" dT="2022-03-28T15:49:34.88" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{1AC97449-A41A-2341-A04B-EE2F329391F4}">
+    <text>优化比赛详情页面（报名之后发送一条消息，并刷新消息列表和未读消息数量）、顶部用户组件、个人信息页面、消息详情页面、导航组件；完成活动搜索功能；重新设计发布页面。</text>
+  </threadedComment>
+  <threadedComment ref="A9" dT="2022-03-28T15:49:42.37" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{4C7DB6FF-4D64-BF44-9362-FE5E67A5C19E}">
+    <text>修改整体过渡动画；重新设计发布页面；设计并完成发布页面下列的比赛列表页面；设计出发送消息页面。</text>
+  </threadedComment>
+  <threadedComment ref="B9" dT="2022-03-28T15:49:51.62" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{E33834DE-6EB1-B146-9680-214A761C0D96}">
+    <text>完成评审页面；修改发布消息页面、发布比赛页面、消息详情页面、比赛详情页面、个人中心页面。</text>
+  </threadedComment>
+  <threadedComment ref="C10" dT="2022-03-28T15:50:02.20" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{93FCDCBD-8B60-374C-A95D-43E19A0A94F4}">
+    <text>修改前端代码，把sessionStorage存储的用户信息改为用vuex存储。另外后期会把localStorage存储的用户信息改为只存储用户账号密码的密文。</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2022-03-28T15:50:11.06" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{8F7C4343-C531-4941-AC0F-E5C63DF51FB3}">
+    <text>重新设计自动登录功能，数据库采用md5加密方式存储密码，前端同样采用md5加密方式存储在localStorage。存在bug：前端部分组件加载后获取不到存储在vuex里的用户信息。</text>
+  </threadedComment>
+  <threadedComment ref="B11" dT="2022-03-28T15:50:19.44" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{63077DA5-FC9E-3749-85DC-19B4CB774229}">
+    <text>重新设计发布页面：将发布页面更改为管理页面，重新设计管理页面路由，以及管理默认页；获取数据方式由sessionStorage改为vuex；</text>
+  </threadedComment>
+  <threadedComment ref="C11" dT="2022-03-28T15:50:27.26" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{C1D6DCA9-02AC-FB43-AF82-41048FDB11A3}">
+    <text>完成管理页面下的添加比赛和修改比赛功能。</text>
+  </threadedComment>
+  <threadedComment ref="D11" dT="2022-03-28T15:50:42.33" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{2497A436-46C6-5F43-B305-CC0C9F99962C}">
+    <text>新增消息删除功能和删除所有已读功能；修复添加比赛后，返回比赛列表不显示新发布的比赛，检测到是由于sql语句不严谨导致，内连接只显示关联的数据，更换为左连接，分组字段改为contest_id，查询字段COUNT(contest_title)改为COUNT(scores_id) 即可。
+更改前：
+SELECT contests.contest_id,contest_title,COUNT(contest_title) number FROM contests INNER JOIN scores ON contests.contest_id=scores.contest_id WHERE group_id = 3 GROUP BY contest_title
+更改后：
+SELECT contests.contest_id,contest_title,COUNT(scores_id) number FROM contests LEFT JOIN scores ON contests.contest_id=scores.contest_id WHERE group_id = 3 GROUP BY contest_id</text>
+  </threadedComment>
+  <threadedComment ref="G11" dT="2022-03-28T15:50:54.34" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{A6F918D8-0605-764F-A377-5BF147C64C98}">
+    <text>创建前端后台界面：调整后台的路由跳转，点击导航出现tab标签页，根据地址栏自动添加标签页并选中，导航根据列表自动生成......</text>
+  </threadedComment>
+  <threadedComment ref="A12" dT="2022-03-28T15:51:04.74" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{2B13204B-F1A7-BB4C-9DE5-622AB9709951}">
+    <text>修改导航列表生成方式；修改数据库；修改管理页面：添加删除功能，添加审核状态前台功能。</text>
+  </threadedComment>
+  <threadedComment ref="B12" dT="2022-03-28T15:51:11.96" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{3E6BD415-E666-764F-BE4D-5409F602FDA9}">
+    <text>添加比赛的审核功能，出现修改比赛之后，null不能更新到数据库，最终找到解决方案（在字段名上加上@TableField(updateStrategy = FieldStrategy.IGNORED)注解）。实现删除审核功能。</text>
+  </threadedComment>
+  <threadedComment ref="C12" dT="2022-03-28T15:51:19.09" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{612B1767-427E-B448-A1EE-41DDB60D0C59}">
+    <text>前端后台页面完成用户组管理功能</text>
+  </threadedComment>
+  <threadedComment ref="D12" dT="2022-03-28T15:51:26.46" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{4272F01C-0DF8-CF45-BDB1-94CA993BE216}">
+    <text>设计平均分配算法，将各个比赛的参赛者的评审权平均分配给审核人员。实现原理：根据组id查询用户列表（审核员数量）、查询比赛列表。将比赛列表进行循环，判断参赛人数是否为空，不为空则用参赛人数除以审核员数量，判断是否有余数，分别执行不同的方法生成map对象（以用户列表的审核员id为键的两个属性），将map对象以json文件的形式存储在用户目录下。过程中碰到了静态类注入空指针的问题，最后需要自建一个set方法，并加上@Autowired注解，类加上@Component注解即可。</text>
+  </threadedComment>
+  <threadedComment ref="G12" dT="2022-03-28T15:51:51.93" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{86C5C0D7-5F02-EB4D-8EF1-9FE2FB2D9543}">
+    <text>管理员评审比赛功能完成。</text>
+  </threadedComment>
+  <threadedComment ref="F14" dT="2022-03-28T15:52:01.26" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{BAA30DD3-4590-F24A-AFFD-594DACC3EEB5}">
+    <text>更改登录方式，采用jwt技术实现登录。</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2022-03-28T15:52:16.66" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{DAEED059-109A-5C46-9C05-2EFB574C3B1E}">
+    <text>设计并完成用户管理页面；
+解决多次加载mounted的问题（tags有多少个，切换到标签页的时候mounted就加载几次），解决方案：
+&lt;el-tabs v-model=""activeIndex"" type=""border-card"" v-show=""tabs.length"" @tab-click='clickTab' @tab-remove='removeTab'&gt;
+    &lt;el-tab-pane v-for=""item in tabs"" :key=""item.name"" :label=""item.name"" :name=""item.route"" :closable=""item.name !=='首页'""&gt;
+        &lt;router-view/&gt;
+    &lt;/el-tab-pane&gt;
+&lt;/el-tabs&gt;
+改为：
+&lt;el-tabs v-model=""activeIndex"" type=""border-card"" v-show=""tabs.length"" @tab-click='clickTab' @tab-remove='removeTab'&gt;
+    &lt;el-tab-pane v-for=""item in tabs"" :key=""item.name"" :label=""item.name"" :name=""item.route"" :closable=""item.name !=='首页'""&gt;&lt;/el-tab-pane&gt;
+    &lt;router-view/&gt;
+&lt;/el-tabs&gt;</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C5A4AD-3F8B-264E-98ED-070AC97F0848}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="7" width="15.83203125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11">
+        <v>44558</v>
+      </c>
+      <c r="C2" s="11">
+        <v>44559</v>
+      </c>
+      <c r="D2" s="12">
+        <v>44560</v>
+      </c>
+      <c r="E2" s="12">
+        <v>44561</v>
+      </c>
+      <c r="F2" s="12">
+        <v>44562</v>
+      </c>
+      <c r="G2" s="12">
+        <v>44563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1">
+      <c r="A3" s="12">
+        <v>44564</v>
+      </c>
+      <c r="B3" s="12">
+        <v>44565</v>
+      </c>
+      <c r="C3" s="12">
+        <v>44566</v>
+      </c>
+      <c r="D3" s="12">
+        <v>44567</v>
+      </c>
+      <c r="E3" s="12">
+        <v>44568</v>
+      </c>
+      <c r="F3" s="12">
+        <v>44569</v>
+      </c>
+      <c r="G3" s="11">
+        <v>44570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1">
+      <c r="A4" s="11">
+        <v>44571</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44572</v>
+      </c>
+      <c r="C4" s="11">
+        <v>44573</v>
+      </c>
+      <c r="D4" s="11">
+        <v>44574</v>
+      </c>
+      <c r="E4" s="11">
+        <v>44575</v>
+      </c>
+      <c r="F4" s="11">
+        <v>44576</v>
+      </c>
+      <c r="G4" s="11">
+        <v>44577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="A5" s="11">
+        <v>44578</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44579</v>
+      </c>
+      <c r="C5" s="11">
+        <v>44580</v>
+      </c>
+      <c r="D5" s="11">
+        <v>44581</v>
+      </c>
+      <c r="E5" s="11">
+        <v>44582</v>
+      </c>
+      <c r="F5" s="11">
+        <v>44583</v>
+      </c>
+      <c r="G5" s="11">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="A6" s="11">
+        <v>44585</v>
+      </c>
+      <c r="B6" s="12">
+        <v>44586</v>
+      </c>
+      <c r="C6" s="12">
+        <v>44587</v>
+      </c>
+      <c r="D6" s="12">
+        <v>44588</v>
+      </c>
+      <c r="E6" s="12">
+        <v>44589</v>
+      </c>
+      <c r="F6" s="12">
+        <v>44590</v>
+      </c>
+      <c r="G6" s="12">
+        <v>44591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" s="12">
+        <v>44592</v>
+      </c>
+      <c r="B7" s="12">
+        <v>44593</v>
+      </c>
+      <c r="C7" s="12">
+        <v>44594</v>
+      </c>
+      <c r="D7" s="12">
+        <v>44595</v>
+      </c>
+      <c r="E7" s="12">
+        <v>44596</v>
+      </c>
+      <c r="F7" s="11">
+        <v>44597</v>
+      </c>
+      <c r="G7" s="11">
+        <v>44598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1">
+      <c r="A8" s="12">
+        <v>44599</v>
+      </c>
+      <c r="B8" s="12">
+        <v>44600</v>
+      </c>
+      <c r="C8" s="11">
+        <v>44601</v>
+      </c>
+      <c r="D8" s="11">
+        <v>44602</v>
+      </c>
+      <c r="E8" s="11">
+        <v>44603</v>
+      </c>
+      <c r="F8" s="11">
+        <v>44604</v>
+      </c>
+      <c r="G8" s="11">
+        <v>44605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" s="11">
+        <v>44606</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44607</v>
+      </c>
+      <c r="C9" s="12">
+        <v>44608</v>
+      </c>
+      <c r="D9" s="12">
+        <v>44609</v>
+      </c>
+      <c r="E9" s="12">
+        <v>44610</v>
+      </c>
+      <c r="F9" s="12">
+        <v>44611</v>
+      </c>
+      <c r="G9" s="12">
+        <v>44612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1">
+      <c r="A10" s="12">
+        <v>44613</v>
+      </c>
+      <c r="B10" s="12">
+        <v>44614</v>
+      </c>
+      <c r="C10" s="11">
+        <v>44615</v>
+      </c>
+      <c r="D10" s="12">
+        <v>44616</v>
+      </c>
+      <c r="E10" s="12">
+        <v>44617</v>
+      </c>
+      <c r="F10" s="12">
+        <v>44618</v>
+      </c>
+      <c r="G10" s="12">
+        <v>44619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="A11" s="11">
+        <v>44620</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44621</v>
+      </c>
+      <c r="C11" s="11">
+        <v>44622</v>
+      </c>
+      <c r="D11" s="11">
+        <v>44623</v>
+      </c>
+      <c r="E11" s="12">
+        <v>44624</v>
+      </c>
+      <c r="F11" s="12">
+        <v>44625</v>
+      </c>
+      <c r="G11" s="11">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="A12" s="11">
+        <v>44627</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44628</v>
+      </c>
+      <c r="C12" s="11">
+        <v>44629</v>
+      </c>
+      <c r="D12" s="11">
+        <v>44630</v>
+      </c>
+      <c r="E12" s="12">
+        <v>44631</v>
+      </c>
+      <c r="F12" s="12">
+        <v>44632</v>
+      </c>
+      <c r="G12" s="11">
+        <v>44633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1">
+      <c r="A13" s="12">
+        <v>44634</v>
+      </c>
+      <c r="B13" s="12">
+        <v>44635</v>
+      </c>
+      <c r="C13" s="12">
+        <v>44636</v>
+      </c>
+      <c r="D13" s="12">
+        <v>44637</v>
+      </c>
+      <c r="E13" s="12">
+        <v>44638</v>
+      </c>
+      <c r="F13" s="12">
+        <v>44639</v>
+      </c>
+      <c r="G13" s="12">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1">
+      <c r="A14" s="12">
+        <v>44641</v>
+      </c>
+      <c r="B14" s="12">
+        <v>44642</v>
+      </c>
+      <c r="C14" s="12">
+        <v>44643</v>
+      </c>
+      <c r="D14" s="12">
+        <v>44644</v>
+      </c>
+      <c r="E14" s="12">
+        <v>44645</v>
+      </c>
+      <c r="F14" s="11">
+        <v>44646</v>
+      </c>
+      <c r="G14" s="12">
+        <v>44647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" s="11">
+        <v>44648</v>
+      </c>
+      <c r="B15" s="12">
+        <v>44649</v>
+      </c>
+      <c r="C15" s="12">
+        <v>44650</v>
+      </c>
+      <c r="D15" s="12">
+        <v>44651</v>
+      </c>
+      <c r="E15" s="12">
+        <v>44652</v>
+      </c>
+      <c r="F15" s="12">
+        <v>44653</v>
+      </c>
+      <c r="G15" s="12">
+        <v>44654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A77" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
@@ -582,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1">
+    <row r="2" spans="1:2" ht="17">
       <c r="A2" s="5">
         <v>44558</v>
       </c>
@@ -590,7 +1613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1">
+    <row r="3" spans="1:2" ht="17">
       <c r="A3" s="5">
         <v>44559</v>
       </c>
@@ -598,57 +1621,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1">
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="5">
         <v>44560</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="5">
         <v>44561</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1">
+    <row r="6" spans="1:2" ht="16">
       <c r="A6" s="5">
         <v>44562</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1">
+    <row r="7" spans="1:2" ht="16">
       <c r="A7" s="5">
         <v>44563</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1">
+    <row r="8" spans="1:2" ht="16">
       <c r="A8" s="5">
         <v>44564</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1">
+    <row r="9" spans="1:2" ht="16">
       <c r="A9" s="5">
         <v>44565</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1">
+    <row r="10" spans="1:2" ht="16">
       <c r="A10" s="5">
         <v>44566</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1">
+    <row r="11" spans="1:2" ht="16">
       <c r="A11" s="5">
         <v>44567</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1">
+    <row r="12" spans="1:2" ht="16">
       <c r="A12" s="5">
         <v>44568</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1">
+    <row r="13" spans="1:2" ht="16">
       <c r="A13" s="5">
         <v>44569</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1">
+    <row r="14" spans="1:2" ht="17">
       <c r="A14" s="5">
         <v>44570</v>
       </c>
@@ -656,7 +1679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1">
+    <row r="15" spans="1:2" ht="17">
       <c r="A15" s="5">
         <v>44571</v>
       </c>
@@ -664,7 +1687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1">
+    <row r="16" spans="1:2" ht="17">
       <c r="A16" s="5">
         <v>44572</v>
       </c>
@@ -672,7 +1695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
+    <row r="17" spans="1:2" ht="17">
       <c r="A17" s="5">
         <v>44573</v>
       </c>
@@ -680,7 +1703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
+    <row r="18" spans="1:2" ht="17">
       <c r="A18" s="5">
         <v>44574</v>
       </c>
@@ -688,7 +1711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
+    <row r="19" spans="1:2" ht="17">
       <c r="A19" s="5">
         <v>44575</v>
       </c>
@@ -696,7 +1719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
+    <row r="20" spans="1:2" ht="17">
       <c r="A20" s="5">
         <v>44576</v>
       </c>
@@ -704,7 +1727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1">
+    <row r="21" spans="1:2" ht="17">
       <c r="A21" s="5">
         <v>44577</v>
       </c>
@@ -712,7 +1735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1">
+    <row r="22" spans="1:2" ht="17">
       <c r="A22" s="5">
         <v>44578</v>
       </c>
@@ -720,7 +1743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1">
+    <row r="23" spans="1:2" ht="17">
       <c r="A23" s="5">
         <v>44579</v>
       </c>
@@ -728,7 +1751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1">
+    <row r="24" spans="1:2" ht="17">
       <c r="A24" s="5">
         <v>44580</v>
       </c>
@@ -736,7 +1759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" customHeight="1">
+    <row r="25" spans="1:2" ht="17">
       <c r="A25" s="5">
         <v>44581</v>
       </c>
@@ -744,7 +1767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" customHeight="1">
+    <row r="26" spans="1:2" ht="17">
       <c r="A26" s="5">
         <v>44582</v>
       </c>
@@ -752,7 +1775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" customHeight="1">
+    <row r="27" spans="1:2" ht="17">
       <c r="A27" s="5">
         <v>44583</v>
       </c>
@@ -760,7 +1783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" customHeight="1">
+    <row r="28" spans="1:2" ht="17">
       <c r="A28" s="5">
         <v>44584</v>
       </c>
@@ -768,7 +1791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" customHeight="1">
+    <row r="29" spans="1:2" ht="17">
       <c r="A29" s="5">
         <v>44585</v>
       </c>
@@ -776,62 +1799,62 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" customHeight="1">
+    <row r="30" spans="1:2" ht="16">
       <c r="A30" s="5">
         <v>44586</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" customHeight="1">
+    <row r="31" spans="1:2" ht="16">
       <c r="A31" s="5">
         <v>44587</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" customHeight="1">
+    <row r="32" spans="1:2" ht="16">
       <c r="A32" s="5">
         <v>44588</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" customHeight="1">
+    <row r="33" spans="1:2" ht="16">
       <c r="A33" s="5">
         <v>44589</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" customHeight="1">
+    <row r="34" spans="1:2" ht="16">
       <c r="A34" s="5">
         <v>44590</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" customHeight="1">
+    <row r="35" spans="1:2" ht="16">
       <c r="A35" s="5">
         <v>44591</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" customHeight="1">
+    <row r="36" spans="1:2" ht="16">
       <c r="A36" s="5">
         <v>44592</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30" customHeight="1">
+    <row r="37" spans="1:2" ht="16">
       <c r="A37" s="5">
         <v>44593</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" customHeight="1">
+    <row r="38" spans="1:2" ht="16">
       <c r="A38" s="5">
         <v>44594</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" customHeight="1">
+    <row r="39" spans="1:2" ht="16">
       <c r="A39" s="5">
         <v>44595</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" customHeight="1">
+    <row r="40" spans="1:2" ht="16">
       <c r="A40" s="5">
         <v>44596</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30" customHeight="1">
+    <row r="41" spans="1:2" ht="17">
       <c r="A41" s="5">
         <v>44597</v>
       </c>
@@ -839,7 +1862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" customHeight="1">
+    <row r="42" spans="1:2" ht="17">
       <c r="A42" s="5">
         <v>44598</v>
       </c>
@@ -847,17 +1870,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30" customHeight="1">
+    <row r="43" spans="1:2" ht="16">
       <c r="A43" s="5">
         <v>44599</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" customHeight="1">
+    <row r="44" spans="1:2" ht="16">
       <c r="A44" s="5">
         <v>44600</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" customHeight="1">
+    <row r="45" spans="1:2" ht="17">
       <c r="A45" s="5">
         <v>44601</v>
       </c>
@@ -865,7 +1888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" customHeight="1">
+    <row r="46" spans="1:2" ht="17">
       <c r="A46" s="5">
         <v>44602</v>
       </c>
@@ -873,7 +1896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" customHeight="1">
+    <row r="47" spans="1:2" ht="17">
       <c r="A47" s="5">
         <v>44603</v>
       </c>
@@ -881,7 +1904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30" customHeight="1">
+    <row r="48" spans="1:2" ht="17">
       <c r="A48" s="5">
         <v>44604</v>
       </c>
@@ -889,7 +1912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" customHeight="1">
+    <row r="49" spans="1:2" ht="17">
       <c r="A49" s="5">
         <v>44605</v>
       </c>
@@ -897,7 +1920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30" customHeight="1">
+    <row r="50" spans="1:2" ht="17">
       <c r="A50" s="5">
         <v>44606</v>
       </c>
@@ -905,7 +1928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" customHeight="1">
+    <row r="51" spans="1:2" ht="17">
       <c r="A51" s="5">
         <v>44607</v>
       </c>
@@ -913,42 +1936,42 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" customHeight="1">
+    <row r="52" spans="1:2" ht="16">
       <c r="A52" s="5">
         <v>44608</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30" customHeight="1">
+    <row r="53" spans="1:2" ht="16">
       <c r="A53" s="5">
         <v>44609</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30" customHeight="1">
+    <row r="54" spans="1:2" ht="16">
       <c r="A54" s="5">
         <v>44610</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30" customHeight="1">
+    <row r="55" spans="1:2" ht="16">
       <c r="A55" s="5">
         <v>44611</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="30" customHeight="1">
+    <row r="56" spans="1:2" ht="16">
       <c r="A56" s="5">
         <v>44612</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" customHeight="1">
+    <row r="57" spans="1:2" ht="16">
       <c r="A57" s="5">
         <v>44613</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" customHeight="1">
+    <row r="58" spans="1:2" ht="16">
       <c r="A58" s="5">
         <v>44614</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" customHeight="1">
+    <row r="59" spans="1:2" ht="17">
       <c r="A59" s="5">
         <v>44615</v>
       </c>
@@ -956,27 +1979,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30" customHeight="1">
+    <row r="60" spans="1:2" ht="16">
       <c r="A60" s="5">
         <v>44616</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30" customHeight="1">
+    <row r="61" spans="1:2" ht="16">
       <c r="A61" s="5">
         <v>44617</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" customHeight="1">
+    <row r="62" spans="1:2" ht="16">
       <c r="A62" s="5">
         <v>44618</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30" customHeight="1">
+    <row r="63" spans="1:2" ht="16">
       <c r="A63" s="5">
         <v>44619</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30" customHeight="1">
+    <row r="64" spans="1:2" ht="17">
       <c r="A64" s="5">
         <v>44620</v>
       </c>
@@ -984,7 +2007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="30" customHeight="1">
+    <row r="65" spans="1:2" ht="17">
       <c r="A65" s="5">
         <v>44621</v>
       </c>
@@ -992,7 +2015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30" customHeight="1">
+    <row r="66" spans="1:2" ht="17">
       <c r="A66" s="5">
         <v>44622</v>
       </c>
@@ -1000,7 +2023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="136" customHeight="1">
+    <row r="67" spans="1:2" ht="119">
       <c r="A67" s="5">
         <v>44623</v>
       </c>
@@ -1008,17 +2031,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="30" customHeight="1">
+    <row r="68" spans="1:2" ht="16">
       <c r="A68" s="5">
         <v>44624</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30" customHeight="1">
+    <row r="69" spans="1:2" ht="16">
       <c r="A69" s="5">
         <v>44625</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30" customHeight="1">
+    <row r="70" spans="1:2" ht="17">
       <c r="A70" s="5">
         <v>44626</v>
       </c>
@@ -1026,7 +2049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30" customHeight="1">
+    <row r="71" spans="1:2" ht="17">
       <c r="A71" s="5">
         <v>44627</v>
       </c>
@@ -1034,7 +2057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30" customHeight="1">
+    <row r="72" spans="1:2" ht="17">
       <c r="A72" s="5">
         <v>44628</v>
       </c>
@@ -1042,7 +2065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="30" customHeight="1">
+    <row r="73" spans="1:2" ht="17">
       <c r="A73" s="5">
         <v>44629</v>
       </c>
@@ -1050,7 +2073,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="70" customHeight="1">
+    <row r="74" spans="1:2" ht="51">
       <c r="A74" s="5">
         <v>44630</v>
       </c>
@@ -1058,17 +2081,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="30" customHeight="1">
+    <row r="75" spans="1:2" ht="16">
       <c r="A75" s="5">
         <v>44631</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="30" customHeight="1">
+    <row r="76" spans="1:2" ht="16">
       <c r="A76" s="5">
         <v>44632</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30" customHeight="1">
+    <row r="77" spans="1:2" ht="17">
       <c r="A77" s="5">
         <v>44633</v>
       </c>
@@ -1076,67 +2099,67 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="30" customHeight="1">
+    <row r="78" spans="1:2" ht="16">
       <c r="A78" s="5">
         <v>44634</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="30" customHeight="1">
+    <row r="79" spans="1:2" ht="16">
       <c r="A79" s="5">
         <v>44635</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="30" customHeight="1">
+    <row r="80" spans="1:2" ht="16">
       <c r="A80" s="5">
         <v>44636</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="30" customHeight="1">
+    <row r="81" spans="1:2" ht="16">
       <c r="A81" s="5">
         <v>44637</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="30" customHeight="1">
+    <row r="82" spans="1:2" ht="16">
       <c r="A82" s="5">
         <v>44638</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="30" customHeight="1">
+    <row r="83" spans="1:2" ht="16">
       <c r="A83" s="5">
         <v>44639</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="30" customHeight="1">
+    <row r="84" spans="1:2" ht="16">
       <c r="A84" s="5">
         <v>44640</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="30" customHeight="1">
+    <row r="85" spans="1:2" ht="16">
       <c r="A85" s="5">
         <v>44641</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="30" customHeight="1">
+    <row r="86" spans="1:2" ht="16">
       <c r="A86" s="5">
         <v>44642</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="30" customHeight="1">
+    <row r="87" spans="1:2" ht="16">
       <c r="A87" s="5">
         <v>44643</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="30" customHeight="1">
+    <row r="88" spans="1:2" ht="16">
       <c r="A88" s="5">
         <v>44644</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="30" customHeight="1">
+    <row r="89" spans="1:2" ht="16">
       <c r="A89" s="5">
         <v>44645</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="30" customHeight="1">
+    <row r="90" spans="1:2" ht="17">
       <c r="A90" s="5">
         <v>44646</v>
       </c>
@@ -1144,112 +2167,124 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="30" customHeight="1">
+    <row r="91" spans="1:2" ht="16">
       <c r="A91" s="5">
         <v>44647</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="30" customHeight="1">
+    <row r="92" spans="1:2" ht="255">
       <c r="A92" s="5">
         <v>44648</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="30" customHeight="1">
+      <c r="B92" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="16">
       <c r="A93" s="5">
         <v>44649</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="30" customHeight="1">
       <c r="A94" s="5">
         <v>44650</v>
       </c>
+      <c r="B94" s="7"/>
     </row>
     <row r="95" spans="1:2" ht="30" customHeight="1">
       <c r="A95" s="5">
         <v>44651</v>
       </c>
+      <c r="B95" s="6"/>
     </row>
     <row r="96" spans="1:2" ht="30" customHeight="1">
       <c r="A96" s="5">
         <v>44652</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="30" customHeight="1">
+      <c r="B96" s="7"/>
+    </row>
+    <row r="97" spans="1:2" ht="30" customHeight="1">
       <c r="A97" s="5">
         <v>44653</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="30" customHeight="1">
+      <c r="B97" s="6"/>
+    </row>
+    <row r="98" spans="1:2" ht="30" customHeight="1">
       <c r="A98" s="5">
         <v>44654</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="30" customHeight="1">
+      <c r="B98" s="6"/>
+    </row>
+    <row r="99" spans="1:2" ht="30" customHeight="1">
       <c r="A99" s="5">
         <v>44655</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="30" customHeight="1">
+      <c r="B99" s="6"/>
+    </row>
+    <row r="100" spans="1:2" ht="30" customHeight="1">
       <c r="A100" s="5">
         <v>44656</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="30" customHeight="1">
+    <row r="101" spans="1:2" ht="30" customHeight="1">
       <c r="A101" s="5">
         <v>44657</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="30" customHeight="1">
+    <row r="102" spans="1:2" ht="30" customHeight="1">
       <c r="A102" s="5">
         <v>44658</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="30" customHeight="1">
+    <row r="103" spans="1:2" ht="30" customHeight="1">
       <c r="A103" s="5">
         <v>44659</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="30" customHeight="1">
+    <row r="104" spans="1:2" ht="30" customHeight="1">
       <c r="A104" s="5">
         <v>44660</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="30" customHeight="1">
+    <row r="105" spans="1:2" ht="30" customHeight="1">
       <c r="A105" s="5">
         <v>44661</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="30" customHeight="1">
+    <row r="106" spans="1:2" ht="30" customHeight="1">
       <c r="A106" s="5">
         <v>44662</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="30" customHeight="1">
+    <row r="107" spans="1:2" ht="30" customHeight="1">
       <c r="A107" s="5">
         <v>44663</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="30" customHeight="1">
+    <row r="108" spans="1:2" ht="30" customHeight="1">
       <c r="A108" s="5">
         <v>44664</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="30" customHeight="1">
+    <row r="109" spans="1:2" ht="30" customHeight="1">
       <c r="A109" s="5">
         <v>44665</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="30" customHeight="1">
+    <row r="110" spans="1:2" ht="30" customHeight="1">
       <c r="A110" s="5">
         <v>44666</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="30" customHeight="1">
+    <row r="111" spans="1:2" ht="30" customHeight="1">
       <c r="A111" s="5">
         <v>44667</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="30" customHeight="1">
+    <row r="112" spans="1:2" ht="30" customHeight="1">
       <c r="A112" s="5">
         <v>44668</v>
       </c>

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1F9244-EC16-FE4F-AEF5-8B0DD04E8637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D236A0-F4FF-BE4D-AEEC-5DCA4FA56847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13040" yWindow="3660" windowWidth="34960" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,6 +77,7 @@
     <author>tc={86C5C0D7-5F02-EB4D-8EF1-9FE2FB2D9543}</author>
     <author>tc={BAA30DD3-4590-F24A-AFFD-594DACC3EEB5}</author>
     <author>tc={DAEED059-109A-5C46-9C05-2EFB574C3B1E}</author>
+    <author>tc={BBAEA8BF-BAC5-0046-9C33-BC2F8F96EB97}</author>
   </authors>
   <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{AD4D2438-E01C-B546-AB85-B57060B6AF4D}">
@@ -414,6 +415,14 @@
 &lt;/el-tabs&gt;</t>
       </text>
     </comment>
+    <comment ref="B15" authorId="40" shapeId="0" xr:uid="{BBAEA8BF-BAC5-0046-9C33-BC2F8F96EB97}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    修改数据库名，拆分sql文件</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -636,7 +645,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,6 +705,12 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1197,6 +1212,9 @@
     &lt;router-view/&gt;
 &lt;/el-tabs&gt;</text>
   </threadedComment>
+  <threadedComment ref="B15" dT="2022-03-29T14:15:51.79" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{BBAEA8BF-BAC5-0046-9C33-BC2F8F96EB97}">
+    <text>修改数据库名，拆分sql文件</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1205,7 +1223,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
@@ -1538,7 +1556,7 @@
       <c r="A15" s="11">
         <v>44648</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>44649</v>
       </c>
       <c r="C15" s="12">

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D236A0-F4FF-BE4D-AEEC-5DCA4FA56847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A4BCB1-6E3F-E846-AA71-DF5CE91C1D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13040" yWindow="3660" windowWidth="34960" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16420" yWindow="6740" windowWidth="34960" windowHeight="22360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日期批注" sheetId="2" r:id="rId1"/>
@@ -78,6 +78,8 @@
     <author>tc={BAA30DD3-4590-F24A-AFFD-594DACC3EEB5}</author>
     <author>tc={DAEED059-109A-5C46-9C05-2EFB574C3B1E}</author>
     <author>tc={BBAEA8BF-BAC5-0046-9C33-BC2F8F96EB97}</author>
+    <author>tc={029807D8-CB2F-CB4E-9509-30EA94DEA636}</author>
+    <author>tc={2319EC00-528F-DE41-B726-15E96EC13282}</author>
   </authors>
   <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{AD4D2438-E01C-B546-AB85-B57060B6AF4D}">
@@ -423,12 +425,28 @@
     修改数据库名，拆分sql文件</t>
       </text>
     </comment>
+    <comment ref="C15" authorId="41" shapeId="0" xr:uid="{029807D8-CB2F-CB4E-9509-30EA94DEA636}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    修复报错</t>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="42" shapeId="0" xr:uid="{2319EC00-528F-DE41-B726-15E96EC13282}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    重新设计平均分分配比评审算法，老师在管理页面点击评审后查找本地文件，如果不存在就创建。</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,9 +614,6 @@
   <si>
     <t>更改登录方式，采用jwt技术实现登录。</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
   </si>
   <si>
     <t>星期一</t>
@@ -637,6 +652,18 @@
 &lt;/el-tabs&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>修复报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改数据库名，拆分sql文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新设计平均分分配比评审算法，老师在管理页面点击评审后查找本地文件，如果不存在就创建；修复管理员登录后，老师学生登录后头部样式出现的bug；重新设计老师管理页面；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -645,7 +672,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,12 +732,6 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1215,6 +1236,12 @@
   <threadedComment ref="B15" dT="2022-03-29T14:15:51.79" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{BBAEA8BF-BAC5-0046-9C33-BC2F8F96EB97}">
     <text>修改数据库名，拆分sql文件</text>
   </threadedComment>
+  <threadedComment ref="C15" dT="2022-03-31T17:42:21.93" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{029807D8-CB2F-CB4E-9509-30EA94DEA636}">
+    <text>修复报错</text>
+  </threadedComment>
+  <threadedComment ref="D15" dT="2022-03-31T17:43:28.88" personId="{0E31EBAF-B20A-1747-A4F5-A3C7B7AB56A0}" id="{2319EC00-528F-DE41-B726-15E96EC13282}">
+    <text>重新设计平均分分配比评审算法，老师在管理页面点击评审后查找本地文件，如果不存在就创建。</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1222,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C5A4AD-3F8B-264E-98ED-070AC97F0848}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
@@ -1234,25 +1261,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
       <c r="A1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
@@ -1559,10 +1586,10 @@
       <c r="B15" s="11">
         <v>44649</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>44650</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>44651</v>
       </c>
       <c r="E15" s="12">
@@ -1604,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -2195,36 +2222,40 @@
         <v>44648</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="17">
       <c r="A93" s="5">
         <v>44649</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="30" customHeight="1">
+      <c r="B93" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="17">
       <c r="A94" s="5">
         <v>44650</v>
       </c>
-      <c r="B94" s="7"/>
-    </row>
-    <row r="95" spans="1:2" ht="30" customHeight="1">
+      <c r="B94" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="17">
       <c r="A95" s="5">
         <v>44651</v>
       </c>
-      <c r="B95" s="6"/>
-    </row>
-    <row r="96" spans="1:2" ht="30" customHeight="1">
+      <c r="B95" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="16">
       <c r="A96" s="5">
         <v>44652</v>
       </c>
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="1:2" ht="30" customHeight="1">
+    <row r="97" spans="1:2" ht="16">
       <c r="A97" s="5">
         <v>44653</v>
       </c>

--- a/毕业设计进度表.xlsx
+++ b/毕业设计进度表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Graduation_Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Graduation-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A4BCB1-6E3F-E846-AA71-DF5CE91C1D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A7C24A-35CD-44F0-ABA4-A8B52C193DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="6740" windowWidth="34960" windowHeight="22360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日期批注" sheetId="2" r:id="rId1"/>
@@ -84,255 +84,542 @@
   <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{AD4D2438-E01C-B546-AB85-B57060B6AF4D}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     开始设计数据库</t>
+        </r>
       </text>
     </comment>
     <comment ref="C2" authorId="1" shapeId="0" xr:uid="{030697AF-0FE6-C544-9949-C44037E0BB35}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     完成数据库的设计</t>
+        </r>
       </text>
     </comment>
     <comment ref="G3" authorId="2" shapeId="0" xr:uid="{9121FF35-4979-5945-ADFF-D9B6FB724398}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     学习springboot整合mybatis和mybatis-plus</t>
+        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{86D3CBA4-0B4D-164B-92C3-C506BFF4B4A2}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     使用mybatis-plus，设计后端users表的链表分页查询功能，项目发布到github</t>
+        </r>
       </text>
     </comment>
     <comment ref="B4" authorId="4" shapeId="0" xr:uid="{6E32E99E-4FD5-1B44-8696-0E6AE3AF737E}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     后台查询users表的相关操作，完成users表的链表分页查询功能，优化数据库</t>
+        </r>
       </text>
     </comment>
     <comment ref="C4" authorId="5" shapeId="0" xr:uid="{00A3619B-F715-D14A-BE79-432C8E460D39}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     修复users表的链表分页查询功能按照groups表id排序的问题；登录功能的设计，完成后端登录功能，验证码功能</t>
+        </r>
       </text>
     </comment>
     <comment ref="D4" authorId="6" shapeId="0" xr:uid="{EF2AAC44-05FE-BF4D-8F43-0AA7C39D7128}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     前端登录页面设计，输入手机号或者邮箱中的任意一个即可登录，输入框的验证的功能；前后端配合验证登录功能。</t>
+        </r>
       </text>
     </comment>
     <comment ref="E4" authorId="7" shapeId="0" xr:uid="{3457D6C7-9E7C-BE4F-80B0-7F41ED13DA6F}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     修改前端页面逻辑，实现输入框的验证，修复手机登录会提示邮箱输入为空和邮箱登录提示手机为空的bug，完成完成登录功能。学习vue，编写首页基础代码</t>
+        </r>
       </text>
     </comment>
     <comment ref="F4" authorId="8" shapeId="0" xr:uid="{F93EE9E8-E7E3-A242-9DFC-2ED3FB11218E}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     学习vue，编写前端页面代码，完成首页的导航栏样式</t>
+        </r>
       </text>
     </comment>
     <comment ref="G4" authorId="9" shapeId="0" xr:uid="{9E62800C-6F40-F44F-B2EE-FEBD6C6DBFE5}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     学习vue路由设置，通过路由完成首页导航栏的跳转功能，登录页面验证码功能的实现（通过session传入时间戳作为key，验证码作为value来验证）</t>
+        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="10" shapeId="0" xr:uid="{564B8EC4-B20C-D044-8E52-5C57286B8B8D}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     编写前端注册页面代码，完成样式以及部分逻辑。完成后端根据组编码查询功能，联动前端测试成功。</t>
+        </r>
       </text>
     </comment>
     <comment ref="B5" authorId="11" shapeId="0" xr:uid="{F031C95D-FEAC-EF42-A54D-2BF0FE994979}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     修改前端注册页面代码，完善逻辑。完成后端查询手机号和邮箱是否存在，联动前端测试成功。修改选择身份功能遇到实现插入数据返回id的困难没解决完成。</t>
+        </r>
       </text>
     </comment>
     <comment ref="C5" authorId="12" shapeId="0" xr:uid="{802FFE12-29DF-5941-813E-6C1AA4469421}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     完善登录功能；完成注册功能；美化顶部，底部前端页面；修改路由发生变化，标题随之变化；完善后台登录注册逻辑。</t>
+        </r>
       </text>
     </comment>
     <comment ref="D5" authorId="13" shapeId="0" xr:uid="{8F75D536-ED40-7049-A868-57704A33B349}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     编写前端主页代码，设置路由淡入淡出过渡动画。调整前端页面的目录结构，使其更加直观。</t>
+        </r>
       </text>
     </comment>
     <comment ref="E5" authorId="14" shapeId="0" xr:uid="{BE5AC70B-6CB6-4C40-B813-74B30B1C745A}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     编写发布比赛的前端页面，实现后台数据传输。碰到springboot解析转义符的问题没解决\n不能存入数据库。</t>
+        </r>
       </text>
     </comment>
     <comment ref="F5" authorId="15" shapeId="0" xr:uid="{EF39E827-BA3F-494C-874D-0A45A1318954}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     完善首页页面；设计比赛详情页面。</t>
+        </r>
       </text>
     </comment>
     <comment ref="G5" authorId="16" shapeId="0" xr:uid="{142174E6-5D8C-3043-895E-FB2016B54AC6}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     优化比赛详情页面，显示相应的内容。</t>
+        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="17" shapeId="0" xr:uid="{38075603-F382-C541-A93C-8E73B7B7EE61}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     修复跳转子页面而导航菜单无选中效果的问题；报名比赛前后台功能逻辑实现。</t>
+        </r>
       </text>
     </comment>
     <comment ref="F7" authorId="18" shapeId="0" xr:uid="{7B49779A-B5D2-1740-844B-FDA320D348B9}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     比赛详细页面功能实现。</t>
+        </r>
       </text>
     </comment>
     <comment ref="G7" authorId="19" shapeId="0" xr:uid="{F037ABA5-3BC0-764F-9E09-75B98701CB10}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     更新部分md文档，完成首页和发现比赛列表组件</t>
+        </r>
       </text>
     </comment>
     <comment ref="C8" authorId="20" shapeId="0" xr:uid="{023D5A0F-D5BD-0B47-B8B8-E9ADDD027AC5}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     个人中心页面功能实现，优化比赛详细页面逻辑。</t>
+        </r>
       </text>
     </comment>
     <comment ref="D8" authorId="21" shapeId="0" xr:uid="{059CB512-6C31-C24F-897D-CEBB1933258B}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     解决路由重复冗余报错；修改个人中心页面；设计并完成比赛结果页面；调整前端目录结构。</t>
+        </r>
       </text>
     </comment>
     <comment ref="E8" authorId="22" shapeId="0" xr:uid="{669F3DBA-D2DC-6C43-AB3A-5CA2E28C3BEC}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     解决后端传前端时间变成时间戳的问题；完成首页公告模块代码编写；设计并完成公告中心和公告详情页面；md插件报错问题解决不了。</t>
+        </r>
       </text>
     </comment>
     <comment ref="F8" authorId="23" shapeId="0" xr:uid="{E70FC121-2D4C-6E42-B603-7C05C357F52A}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     消息功能未完全实现；目前遇到不可解决的问题：如果在消息详情页面，再次点击消息内容不变，只会改变url。修复问题，优化未读消息实时显示。</t>
+        </r>
       </text>
     </comment>
     <comment ref="G8" authorId="24" shapeId="0" xr:uid="{1AC97449-A41A-2341-A04B-EE2F329391F4}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     优化比赛详情页面（报名之后发送一条消息，并刷新消息列表和未读消息数量）、顶部用户组件、个人信息页面、消息详情页面、导航组件；完成活动搜索功能；重新设计发布页面。</t>
+        </r>
       </text>
     </comment>
     <comment ref="A9" authorId="25" shapeId="0" xr:uid="{4C7DB6FF-4D64-BF44-9362-FE5E67A5C19E}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     修改整体过渡动画；重新设计发布页面；设计并完成发布页面下列的比赛列表页面；设计出发送消息页面。</t>
+        </r>
       </text>
     </comment>
     <comment ref="B9" authorId="26" shapeId="0" xr:uid="{E33834DE-6EB1-B146-9680-214A761C0D96}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     完成评审页面；修改发布消息页面、发布比赛页面、消息详情页面、比赛详情页面、个人中心页面。</t>
+        </r>
       </text>
     </comment>
     <comment ref="C10" authorId="27" shapeId="0" xr:uid="{93FCDCBD-8B60-374C-A95D-43E19A0A94F4}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     修改前端代码，把sessionStorage存储的用户信息改为用vuex存储。另外后期会把localStorage存储的用户信息改为只存储用户账号密码的密文。</t>
+        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="28" shapeId="0" xr:uid="{8F7C4343-C531-4941-AC0F-E5C63DF51FB3}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     重新设计自动登录功能，数据库采用md5加密方式存储密码，前端同样采用md5加密方式存储在localStorage。存在bug：前端部分组件加载后获取不到存储在vuex里的用户信息。</t>
+        </r>
       </text>
     </comment>
     <comment ref="B11" authorId="29" shapeId="0" xr:uid="{63077DA5-FC9E-3749-85DC-19B4CB774229}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     重新设计发布页面：将发布页面更改为管理页面，重新设计管理页面路由，以及管理默认页；获取数据方式由sessionStorage改为vuex；</t>
+        </r>
       </text>
     </comment>
     <comment ref="C11" authorId="30" shapeId="0" xr:uid="{C1D6DCA9-02AC-FB43-AF82-41048FDB11A3}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     完成管理页面下的添加比赛和修改比赛功能。</t>
+        </r>
       </text>
     </comment>
     <comment ref="D11" authorId="31" shapeId="0" xr:uid="{2497A436-46C6-5F43-B305-CC0C9F99962C}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     新增消息删除功能和删除所有已读功能；修复添加比赛后，返回比赛列表不显示新发布的比赛，检测到是由于sql语句不严谨导致，内连接只显示关联的数据，更换为左连接，分组字段改为contest_id，查询字段COUNT(contest_title)改为COUNT(scores_id) 即可。
@@ -340,67 +627,139 @@
 SELECT contests.contest_id,contest_title,COUNT(contest_title) number FROM contests INNER JOIN scores ON contests.contest_id=scores.contest_id WHERE group_id = 3 GROUP BY contest_title
 更改后：
 SELECT contests.contest_id,contest_title,COUNT(scores_id) number FROM contests LEFT JOIN scores ON contests.contest_id=scores.contest_id WHERE group_id = 3 GROUP BY contest_id</t>
+        </r>
       </text>
     </comment>
     <comment ref="G11" authorId="32" shapeId="0" xr:uid="{A6F918D8-0605-764F-A377-5BF147C64C98}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     创建前端后台界面：调整后台的路由跳转，点击导航出现tab标签页，根据地址栏自动添加标签页并选中，导航根据列表自动生成......</t>
+        </r>
       </text>
     </comment>
     <comment ref="A12" authorId="33" shapeId="0" xr:uid="{2B13204B-F1A7-BB4C-9DE5-622AB9709951}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     修改导航列表生成方式；修改数据库；修改管理页面：添加删除功能，添加审核状态前台功能。</t>
+        </r>
       </text>
     </comment>
     <comment ref="B12" authorId="34" shapeId="0" xr:uid="{3E6BD415-E666-764F-BE4D-5409F602FDA9}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     添加比赛的审核功能，出现修改比赛之后，null不能更新到数据库，最终找到解决方案（在字段名上加上@TableField(updateStrategy = FieldStrategy.IGNORED)注解）。实现删除审核功能。</t>
+        </r>
       </text>
     </comment>
     <comment ref="C12" authorId="35" shapeId="0" xr:uid="{612B1767-427E-B448-A1EE-41DDB60D0C59}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     前端后台页面完成用户组管理功能</t>
+        </r>
       </text>
     </comment>
     <comment ref="D12" authorId="36" shapeId="0" xr:uid="{4272F01C-0DF8-CF45-BDB1-94CA993BE216}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     设计平均分配算法，将各个比赛的参赛者的评审权平均分配给审核人员。实现原理：根据组id查询用户列表（审核员数量）、查询比赛列表。将比赛列表进行循环，判断参赛人数是否为空，不为空则用参赛人数除以审核员数量，判断是否有余数，分别执行不同的方法生成map对象（以用户列表的审核员id为键的两个属性），将map对象以json文件的形式存储在用户目录下。过程中碰到了静态类注入空指针的问题，最后需要自建一个set方法，并加上@Autowired注解，类加上@Component注解即可。</t>
+        </r>
       </text>
     </comment>
     <comment ref="G12" authorId="37" shapeId="0" xr:uid="{86C5C0D7-5F02-EB4D-8EF1-9FE2FB2D9543}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     管理员评审比赛功能完成。</t>
+        </r>
       </text>
     </comment>
     <comment ref="F14" authorId="38" shapeId="0" xr:uid="{BAA30DD3-4590-F24A-AFFD-594DACC3EEB5}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     更改登录方式，采用jwt技术实现登录。</t>
+        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="39" shapeId="0" xr:uid="{DAEED059-109A-5C46-9C05-2EFB574C3B1E}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     设计并完成用户管理页面；
@@ -415,30 +774,58 @@
     &lt;el-tab-pane v-for=""item in tabs"" :key=""item.name"" :label=""item.name"" :name=""item.route"" :closable=""item.name !=='首页'""&gt;&lt;/el-tab-pane&gt;
     &lt;router-view/&gt;
 &lt;/el-tabs&gt;</t>
+        </r>
       </text>
     </comment>
     <comment ref="B15" authorId="40" shapeId="0" xr:uid="{BBAEA8BF-BAC5-0046-9C33-BC2F8F96EB97}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     修改数据库名，拆分sql文件</t>
+        </r>
       </text>
     </comment>
     <comment ref="C15" authorId="41" shapeId="0" xr:uid="{029807D8-CB2F-CB4E-9509-30EA94DEA636}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     修复报错</t>
+        </r>
       </text>
     </comment>
     <comment ref="D15" authorId="42" shapeId="0" xr:uid="{2319EC00-528F-DE41-B726-15E96EC13282}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     重新设计平均分分配比评审算法，老师在管理页面点击评审后查找本地文件，如果不存在就创建。</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -446,7 +833,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,30 +851,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用mybatis-plus，设计后端users表的链表分页查询功能，项目发布到github</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后台查询users表的相关操作，完成users表的链表分页查询功能，优化数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修复users表的链表分页查询功能按照groups表id排序的问题；登录功能的设计，完成后端登录功能，验证码功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端登录页面设计，输入手机号或者邮箱中的任意一个即可登录，输入框的验证的功能；前后端配合验证登录功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习springboot整合mybatis和mybatis-plus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改前端页面逻辑，实现输入框的验证，修复手机登录会提示邮箱输入为空和邮箱登录提示手机为空的bug，完成完成登录功能。学习vue，编写首页基础代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习vue，编写前端页面代码，完成首页的导航栏样式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,38 +867,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编写前端注册页面代码，完成样式以及部分逻辑。完成后端根据组编码查询功能，联动前端测试成功。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改前端注册页面代码，完善逻辑。完成后端查询手机号和邮箱是否存在，联动前端测试成功。修改选择身份功能遇到实现插入数据返回id的困难没解决完成。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善登录功能；完成注册功能；美化顶部，底部前端页面；修改路由发生变化，标题随之变化；完善后台登录注册逻辑。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写前端主页代码，设置路由淡入淡出过渡动画。调整前端页面的目录结构，使其更加直观。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写发布比赛的前端页面，实现后台数据传输。碰到springboot解析转义符的问题没解决\n不能存入数据库。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善首页页面；设计比赛详情页面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>优化比赛详情页面，显示相应的内容。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修复跳转子页面而导航菜单无选中效果的问题；报名比赛前后台功能逻辑实现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>个人中心页面功能实现，优化比赛详细页面逻辑。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,63 +883,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解决路由重复冗余报错；修改个人中心页面；设计并完成比赛结果页面；调整前端目录结构。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决后端传前端时间变成时间戳的问题；完成首页公告模块代码编写；设计并完成公告中心和公告详情页面；md插件报错问题解决不了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息功能未完全实现；目前遇到不可解决的问题：如果在消息详情页面，再次点击消息内容不变，只会改变url。修复问题，优化未读消息实时显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化比赛详情页面（报名之后发送一条消息，并刷新消息列表和未读消息数量）、顶部用户组件、个人信息页面、消息详情页面、导航组件；完成活动搜索功能；重新设计发布页面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改整体过渡动画；重新设计发布页面；设计并完成发布页面下列的比赛列表页面；设计出发送消息页面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成评审页面；修改发布消息页面、发布比赛页面、消息详情页面、比赛详情页面、个人中心页面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改前端代码，把sessionStorage存储的用户信息改为用vuex存储。另外后期会把localStorage存储的用户信息改为只存储用户账号密码的密文。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重新设计自动登录功能，数据库采用md5加密方式存储密码，前端同样采用md5加密方式存储在localStorage。存在bug：前端部分组件加载后获取不到存储在vuex里的用户信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新设计发布页面：将发布页面更改为管理页面，重新设计管理页面路由，以及管理默认页；获取数据方式由sessionStorage改为vuex；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成管理页面下的添加比赛和修改比赛功能。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增消息删除功能和删除所有已读功能；修复添加比赛后，返回比赛列表不显示新发布的比赛，检测到是由于sql语句不严谨导致，内连接只显示关联的数据，更换为左连接，分组字段改为contest_id，查询字段COUNT(contest_title)改为COUNT(scores_id) 即可。
-更改前：
-SELECT contests.contest_id,contest_title,COUNT(contest_title) number FROM contests INNER JOIN scores ON contests.contest_id=scores.contest_id WHERE group_id = 3 GROUP BY contest_title
-更改后：
-SELECT contests.contest_id,contest_title,COUNT(scores_id) number FROM contests LEFT JOIN scores ON contests.contest_id=scores.contest_id WHERE group_id = 3 GROUP BY contest_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建前端后台界面：调整后台的路由跳转，点击导航出现tab标签页，根据地址栏自动添加标签页并选中，导航根据列表自动生成......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改导航列表生成方式；修改数据库；修改管理页面：添加删除功能，添加审核状态前台功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加比赛的审核功能，出现修改比赛之后，null不能更新到数据库，最终找到解决方案（在字段名上加上@TableField(updateStrategy = FieldStrategy.IGNORED)注解）。实现删除审核功能。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -661,7 +956,141 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重新设计平均分分配比评审算法，老师在管理页面点击评审后查找本地文件，如果不存在就创建；修复管理员登录后，老师学生登录后头部样式出现的bug；重新设计老师管理页面；</t>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文档注释；更换验证码的jar包，普通网络环境也能下载。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化比赛详情页面（报名之后发送一条消息，并刷新消息列表和未读消息数量）、顶部用户组件、个人信息页面、消息详情页面、导航组件；
+完成活动搜索功能；
+重新设计发布页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端登录页面设计，输入手机号或者邮箱中的任意一个即可登录，输入框的验证的功能；
+前后端配合验证登录功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复users表的链表分页查询功能按照groups表id排序的问题；
+登录功能的设计，完成后端登录功能，验证码功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改前端页面逻辑，实现输入框的验证，修复手机登录会提示邮箱输入为空和邮箱登录提示手机为空的bug，完成完成登录功能；
+学习vue，编写首页基础代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端注册页面代码，完成样式以及部分逻辑；
+完成后端根据组编码查询功能，联动前端测试成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改前端注册页面代码，完善逻辑。完成后端查询手机号和邮箱是否存在，联动前端测试成功；
+修改选择身份功能遇到实现插入数据返回id的困难没解决完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善登录功能；
+完成注册功能；
+美化顶部，底部前端页面；
+修改路由发生变化，标题随之变化；
+完善后台登录注册逻辑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写发布比赛的前端页面，实现后台数据传输；
+碰到springboot解析转义符的问题，没解决\n不能存入数据库。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善首页页面；
+设计比赛详情页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复跳转子页面而导航菜单无选中效果的问题；
+报名比赛前后台功能逻辑实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用mybatis-plus，设计后端users表的链表分页查询功能；
+将项目发布到github</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端主页代码，设置路由淡入淡出过渡动画；
+调整前端页面的目录结构，使其更加直观。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决路由重复冗余报错；
+修改个人中心页面；
+设计并完成比赛结果页面；
+调整前端目录结构。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决后端传前端时间变成时间戳的问题；
+完成首页公告模块代码编写；
+设计并完成公告中心和公告详情页面；
+md插件报错问题解决不了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息功能未完全实现；
+目前遇到不可解决的问题：如果在消息详情页面，再次点击消息内容不变，只会改变url。修复问题，优化未读消息实时显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改整体过渡动画；
+重新设计发布页面；
+设计并完成发布页面下列的比赛列表页面；
+设计出发送消息页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成评审页面；
+修改发布消息页面、发布比赛页面、消息详情页面、比赛详情页面、个人中心页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新设计自动登录功能，数据库采用md5加密方式存储密码，前端同样采用md5加密方式存储在localStorage；
+存在bug：前端部分组件加载后获取不到存储在vuex里的用户信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新设计发布页面：将发布页面更改为管理页面，重新设计管理页面路由，以及管理默认页；
+获取数据方式由sessionStorage改为vuex；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增消息删除功能和删除所有已读功能；
+修复添加比赛后，返回比赛列表不显示新发布的比赛，检测到是由于sql语句不严谨导致，内连接只显示关联的数据，更换为左连接，分组字段改为contest_id，查询字段COUNT(contest_title)改为COUNT(scores_id) 即可。
+更改前：
+SELECT contests.contest_id,contest_title,COUNT(contest_title) number FROM contests INNER JOIN scores ON contests.contest_id=scores.contest_id WHERE group_id = 3 GROUP BY contest_title
+更改后：
+SELECT contests.contest_id,contest_title,COUNT(scores_id) number FROM contests LEFT JOIN scores ON contests.contest_id=scores.contest_id WHERE group_id = 3 GROUP BY contest_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改导航列表生成方式；
+修改数据库；
+修改管理页面：添加删除功能，添加审核状态前台功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加比赛的审核功能，出现修改比赛之后，null不能更新到数据库，最终找到解决方案（在字段名上加上@TableField(updateStrategy = FieldStrategy.IGNORED)注解）；
+实现删除审核功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新设计平均分分配比评审算法，老师在管理页面点击评审后查找本地文件，如果不存在就创建；修复管理员登录后，老师学生登录后头部样式出现的bug；
+重新设计老师管理页面；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +1101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,27 +1125,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFABB2BF"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF98C379"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -732,6 +1140,30 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -773,7 +1205,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -782,33 +1214,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1249,376 +1685,376 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C5A4AD-3F8B-264E-98ED-070AC97F0848}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="15.83203125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="7" width="15.875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7">
         <v>44558</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="7">
         <v>44559</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="8">
         <v>44560</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="8">
         <v>44561</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="8">
         <v>44562</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="8">
         <v>44563</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="12">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>44564</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>44565</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>44566</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>44567</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="8">
         <v>44568</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <v>44569</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="7">
         <v>44570</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="11">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
         <v>44571</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>44572</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="7">
         <v>44573</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="7">
         <v>44574</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="7">
         <v>44575</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="7">
         <v>44576</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="7">
         <v>44577</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="11">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>44578</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>44579</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>44580</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <v>44581</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>44582</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="7">
         <v>44583</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="7">
         <v>44584</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="11">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>44585</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="8">
         <v>44586</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="8">
         <v>44587</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>44588</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <v>44589</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="8">
         <v>44590</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="8">
         <v>44591</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="12">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>44592</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="8">
         <v>44593</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <v>44594</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>44595</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="8">
         <v>44596</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="7">
         <v>44597</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="7">
         <v>44598</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="12">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>44599</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="8">
         <v>44600</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <v>44601</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="7">
         <v>44602</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="7">
         <v>44603</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="7">
         <v>44604</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="7">
         <v>44605</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="11">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <v>44606</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>44607</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="8">
         <v>44608</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <v>44609</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="8">
         <v>44610</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="8">
         <v>44611</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="8">
         <v>44612</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="12">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>44613</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="8">
         <v>44614</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="7">
         <v>44615</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="8">
         <v>44616</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="8">
         <v>44617</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="8">
         <v>44618</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="8">
         <v>44619</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="11">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>44620</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <v>44621</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <v>44622</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="7">
         <v>44623</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="8">
         <v>44624</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="8">
         <v>44625</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="7">
         <v>44626</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="11">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>44627</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="7">
         <v>44628</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="7">
         <v>44629</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="7">
         <v>44630</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <v>44631</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="8">
         <v>44632</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="7">
         <v>44633</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="12">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>44634</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="8">
         <v>44635</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="8">
         <v>44636</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="8">
         <v>44637</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="8">
         <v>44638</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="8">
         <v>44639</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="8">
         <v>44640</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="12">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>44641</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="8">
         <v>44642</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="8">
         <v>44643</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="8">
         <v>44644</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="8">
         <v>44645</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="7">
         <v>44646</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="8">
         <v>44647</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="11">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
         <v>44648</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="7">
         <v>44649</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="7">
         <v>44650</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="7">
         <v>44651</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="8">
         <v>44652</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="8">
         <v>44653</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="8">
         <v>44654</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1629,888 +2065,689 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="107" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="9" customWidth="1"/>
     <col min="2" max="2" width="166.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="50" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17">
-      <c r="A2" s="5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
         <v>44558</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17">
-      <c r="A3" s="5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>44559</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16">
-      <c r="A4" s="5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>44560</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16">
-      <c r="A5" s="5">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>44561</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16">
-      <c r="A6" s="5">
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>44562</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16">
-      <c r="A7" s="5">
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>44563</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16">
-      <c r="A8" s="5">
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>44564</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16">
-      <c r="A9" s="5">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>44565</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16">
-      <c r="A10" s="5">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>44566</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="16">
-      <c r="A11" s="5">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>44567</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="16">
-      <c r="A12" s="5">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>44568</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="16">
-      <c r="A13" s="5">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>44569</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="17">
-      <c r="A14" s="5">
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>44570</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>44571</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>44572</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>44573</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>44574</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>44575</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>44576</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>44577</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>44578</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>44579</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>44580</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>44581</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>44582</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>44583</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>44584</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17">
-      <c r="A15" s="5">
-        <v>44571</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17">
-      <c r="A16" s="5">
-        <v>44572</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17">
-      <c r="A17" s="5">
-        <v>44573</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17">
-      <c r="A18" s="5">
-        <v>44574</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17">
-      <c r="A19" s="5">
-        <v>44575</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>44585</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>44586</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>44587</v>
+      </c>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>44588</v>
+      </c>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>44589</v>
+      </c>
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>44590</v>
+      </c>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>44591</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>44592</v>
+      </c>
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>44593</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>44594</v>
+      </c>
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>44595</v>
+      </c>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>44596</v>
+      </c>
+      <c r="B40" s="10"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>44597</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>44598</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
+        <v>44599</v>
+      </c>
+      <c r="B43" s="10"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
+        <v>44600</v>
+      </c>
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
+        <v>44601</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17">
-      <c r="A20" s="5">
-        <v>44576</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17">
-      <c r="A21" s="5">
-        <v>44577</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17">
-      <c r="A22" s="5">
-        <v>44578</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="46" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
+        <v>44602</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
+        <v>44603</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
+        <v>44604</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
+        <v>44605</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
+        <v>44606</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
+        <v>44607</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
+        <v>44608</v>
+      </c>
+      <c r="B52" s="10"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="9">
+        <v>44609</v>
+      </c>
+      <c r="B53" s="10"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
+        <v>44610</v>
+      </c>
+      <c r="B54" s="10"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
+        <v>44611</v>
+      </c>
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
+        <v>44612</v>
+      </c>
+      <c r="B56" s="10"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
+        <v>44613</v>
+      </c>
+      <c r="B57" s="10"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
+        <v>44614</v>
+      </c>
+      <c r="B58" s="10"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="9">
+        <v>44615</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17">
-      <c r="A23" s="5">
-        <v>44579</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="9">
+        <v>44616</v>
+      </c>
+      <c r="B60" s="10"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="9">
+        <v>44617</v>
+      </c>
+      <c r="B61" s="10"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
+        <v>44618</v>
+      </c>
+      <c r="B62" s="10"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
+        <v>44619</v>
+      </c>
+      <c r="B63" s="10"/>
+    </row>
+    <row r="64" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
+        <v>44620</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="9">
+        <v>44622</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17">
-      <c r="A24" s="5">
-        <v>44580</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="67" spans="1:2" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
+        <v>44623</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
+        <v>44624</v>
+      </c>
+      <c r="B68" s="10"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
+        <v>44625</v>
+      </c>
+      <c r="B69" s="10"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
+        <v>44626</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17">
-      <c r="A25" s="5">
-        <v>44581</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="71" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="9">
+        <v>44627</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="9">
+        <v>44628</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="9">
+        <v>44629</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17">
-      <c r="A26" s="5">
-        <v>44582</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="74" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="9">
+        <v>44630</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="9">
+        <v>44631</v>
+      </c>
+      <c r="B75" s="10"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="9">
+        <v>44632</v>
+      </c>
+      <c r="B76" s="10"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="9">
+        <v>44633</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17">
-      <c r="A27" s="5">
-        <v>44583</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17">
-      <c r="A28" s="5">
-        <v>44584</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="9">
+        <v>44634</v>
+      </c>
+      <c r="B78" s="10"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="9">
+        <v>44635</v>
+      </c>
+      <c r="B79" s="10"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="9">
+        <v>44636</v>
+      </c>
+      <c r="B80" s="10"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="9">
+        <v>44637</v>
+      </c>
+      <c r="B81" s="10"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="9">
+        <v>44638</v>
+      </c>
+      <c r="B82" s="10"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="9">
+        <v>44639</v>
+      </c>
+      <c r="B83" s="10"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="9">
+        <v>44640</v>
+      </c>
+      <c r="B84" s="10"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="9">
+        <v>44641</v>
+      </c>
+      <c r="B85" s="10"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="9">
+        <v>44642</v>
+      </c>
+      <c r="B86" s="10"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="9">
+        <v>44643</v>
+      </c>
+      <c r="B87" s="10"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="9">
+        <v>44644</v>
+      </c>
+      <c r="B88" s="10"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="9">
+        <v>44645</v>
+      </c>
+      <c r="B89" s="10"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="9">
+        <v>44646</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17">
-      <c r="A29" s="5">
-        <v>44585</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16">
-      <c r="A30" s="5">
-        <v>44586</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16">
-      <c r="A31" s="5">
-        <v>44587</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16">
-      <c r="A32" s="5">
-        <v>44588</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16">
-      <c r="A33" s="5">
-        <v>44589</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16">
-      <c r="A34" s="5">
-        <v>44590</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16">
-      <c r="A35" s="5">
-        <v>44591</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16">
-      <c r="A36" s="5">
-        <v>44592</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16">
-      <c r="A37" s="5">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16">
-      <c r="A38" s="5">
-        <v>44594</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16">
-      <c r="A39" s="5">
-        <v>44595</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16">
-      <c r="A40" s="5">
-        <v>44596</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17">
-      <c r="A41" s="5">
-        <v>44597</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17">
-      <c r="A42" s="5">
-        <v>44598</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16">
-      <c r="A43" s="5">
-        <v>44599</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16">
-      <c r="A44" s="5">
-        <v>44600</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17">
-      <c r="A45" s="5">
-        <v>44601</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17">
-      <c r="A46" s="5">
-        <v>44602</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17">
-      <c r="A47" s="5">
-        <v>44603</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17">
-      <c r="A48" s="5">
-        <v>44604</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17">
-      <c r="A49" s="5">
-        <v>44605</v>
-      </c>
-      <c r="B49" s="1" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="9">
+        <v>44647</v>
+      </c>
+      <c r="B91" s="10"/>
+    </row>
+    <row r="92" spans="1:2" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="9">
+        <v>44648</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17">
-      <c r="A50" s="5">
-        <v>44606</v>
-      </c>
-      <c r="B50" s="1" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="9">
+        <v>44649</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="9">
+        <v>44650</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17">
-      <c r="A51" s="5">
-        <v>44607</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16">
-      <c r="A52" s="5">
-        <v>44608</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16">
-      <c r="A53" s="5">
-        <v>44609</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16">
-      <c r="A54" s="5">
-        <v>44610</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="16">
-      <c r="A55" s="5">
-        <v>44611</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="16">
-      <c r="A56" s="5">
-        <v>44612</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16">
-      <c r="A57" s="5">
-        <v>44613</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="16">
-      <c r="A58" s="5">
-        <v>44614</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17">
-      <c r="A59" s="5">
-        <v>44615</v>
-      </c>
-      <c r="B59" s="1" t="s">
+    <row r="95" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="9">
+        <v>44651</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="16">
-      <c r="A60" s="5">
-        <v>44616</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16">
-      <c r="A61" s="5">
-        <v>44617</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="16">
-      <c r="A62" s="5">
-        <v>44618</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="16">
-      <c r="A63" s="5">
-        <v>44619</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="17">
-      <c r="A64" s="5">
-        <v>44620</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="B96" s="10"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="9">
+        <v>44905</v>
+      </c>
+      <c r="B97" s="10" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="17">
-      <c r="A65" s="5">
-        <v>44621</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="17">
-      <c r="A66" s="5">
-        <v>44622</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="119">
-      <c r="A67" s="5">
-        <v>44623</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="16">
-      <c r="A68" s="5">
-        <v>44624</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="16">
-      <c r="A69" s="5">
-        <v>44625</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="17">
-      <c r="A70" s="5">
-        <v>44626</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="17">
-      <c r="A71" s="5">
-        <v>44627</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="17">
-      <c r="A72" s="5">
-        <v>44628</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="17">
-      <c r="A73" s="5">
-        <v>44629</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="51">
-      <c r="A74" s="5">
-        <v>44630</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="16">
-      <c r="A75" s="5">
-        <v>44631</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="16">
-      <c r="A76" s="5">
-        <v>44632</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="17">
-      <c r="A77" s="5">
-        <v>44633</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="16">
-      <c r="A78" s="5">
-        <v>44634</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="16">
-      <c r="A79" s="5">
-        <v>44635</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="16">
-      <c r="A80" s="5">
-        <v>44636</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="16">
-      <c r="A81" s="5">
-        <v>44637</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="16">
-      <c r="A82" s="5">
-        <v>44638</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="16">
-      <c r="A83" s="5">
-        <v>44639</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="16">
-      <c r="A84" s="5">
-        <v>44640</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="16">
-      <c r="A85" s="5">
-        <v>44641</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="16">
-      <c r="A86" s="5">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="16">
-      <c r="A87" s="5">
-        <v>44643</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="16">
-      <c r="A88" s="5">
-        <v>44644</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="16">
-      <c r="A89" s="5">
-        <v>44645</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="17">
-      <c r="A90" s="5">
-        <v>44646</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="16">
-      <c r="A91" s="5">
-        <v>44647</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="255">
-      <c r="A92" s="5">
-        <v>44648</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="17">
-      <c r="A93" s="5">
-        <v>44649</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="17">
-      <c r="A94" s="5">
-        <v>44650</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="17">
-      <c r="A95" s="5">
-        <v>44651</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="16">
-      <c r="A96" s="5">
-        <v>44652</v>
-      </c>
-      <c r="B96" s="7"/>
-    </row>
-    <row r="97" spans="1:2" ht="16">
-      <c r="A97" s="5">
-        <v>44653</v>
-      </c>
-      <c r="B97" s="6"/>
-    </row>
-    <row r="98" spans="1:2" ht="30" customHeight="1">
-      <c r="A98" s="5">
-        <v>44654</v>
-      </c>
-      <c r="B98" s="6"/>
-    </row>
-    <row r="99" spans="1:2" ht="30" customHeight="1">
-      <c r="A99" s="5">
-        <v>44655</v>
-      </c>
-      <c r="B99" s="6"/>
-    </row>
-    <row r="100" spans="1:2" ht="30" customHeight="1">
-      <c r="A100" s="5">
-        <v>44656</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="30" customHeight="1">
-      <c r="A101" s="5">
-        <v>44657</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="30" customHeight="1">
-      <c r="A102" s="5">
-        <v>44658</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="30" customHeight="1">
-      <c r="A103" s="5">
-        <v>44659</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="30" customHeight="1">
-      <c r="A104" s="5">
-        <v>44660</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="30" customHeight="1">
-      <c r="A105" s="5">
-        <v>44661</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="30" customHeight="1">
-      <c r="A106" s="5">
-        <v>44662</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="30" customHeight="1">
-      <c r="A107" s="5">
-        <v>44663</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="30" customHeight="1">
-      <c r="A108" s="5">
-        <v>44664</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="30" customHeight="1">
-      <c r="A109" s="5">
-        <v>44665</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="30" customHeight="1">
-      <c r="A110" s="5">
-        <v>44666</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="30" customHeight="1">
-      <c r="A111" s="5">
-        <v>44667</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="30" customHeight="1">
-      <c r="A112" s="5">
-        <v>44668</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="30" customHeight="1">
-      <c r="A113" s="5">
-        <v>44669</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="30" customHeight="1">
-      <c r="A114" s="5">
-        <v>44670</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="30" customHeight="1">
-      <c r="A115" s="5">
-        <v>44671</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="30" customHeight="1">
-      <c r="A116" s="5">
-        <v>44672</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="30" customHeight="1">
-      <c r="A117" s="5">
-        <v>44673</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="30" customHeight="1">
-      <c r="A118" s="5">
-        <v>44674</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="30" customHeight="1">
-      <c r="A119" s="5">
-        <v>44675</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="30" customHeight="1">
-      <c r="A120" s="5">
-        <v>44676</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="30" customHeight="1">
-      <c r="A121" s="5">
-        <v>44677</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="30" customHeight="1">
-      <c r="A122" s="5">
-        <v>44678</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="30" customHeight="1">
-      <c r="A123" s="5">
-        <v>44679</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="30" customHeight="1">
-      <c r="A124" s="5">
-        <v>44680</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" ht="30" customHeight="1">
-      <c r="A125" s="5">
-        <v>44681</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="30" customHeight="1">
-      <c r="A126" s="5">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" ht="30" customHeight="1">
-      <c r="A127" s="5">
-        <v>44683</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="30" customHeight="1">
-      <c r="A128" s="5">
-        <v>44684</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="30" customHeight="1">
-      <c r="A129" s="5">
-        <v>44685</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="30" customHeight="1">
-      <c r="A130" s="5">
-        <v>44686</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" ht="30" customHeight="1">
-      <c r="A131" s="5">
-        <v>44687</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="30" customHeight="1">
-      <c r="A132" s="5">
-        <v>44688</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="30" customHeight="1">
-      <c r="A133" s="5">
-        <v>44689</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="30" customHeight="1">
-      <c r="A134" s="5">
-        <v>44690</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" ht="30" customHeight="1">
-      <c r="A135" s="5">
-        <v>44691</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="30" customHeight="1">
-      <c r="A136" s="5">
-        <v>44692</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="30" customHeight="1">
-      <c r="A137" s="5">
-        <v>44693</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" ht="30" customHeight="1">
-      <c r="A138" s="5">
-        <v>44694</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" ht="30" customHeight="1">
-      <c r="A139" s="5">
-        <v>44695</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="30" customHeight="1">
-      <c r="A140" s="5">
-        <v>44696</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" ht="30" customHeight="1">
-      <c r="A141" s="5">
-        <v>44697</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" ht="30" customHeight="1">
-      <c r="A142" s="5">
-        <v>44698</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="30" customHeight="1">
-      <c r="A143" s="5">
-        <v>44699</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" ht="30" customHeight="1">
-      <c r="A144" s="5">
-        <v>44700</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" ht="30" customHeight="1">
-      <c r="A145" s="5">
-        <v>44701</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="30" customHeight="1">
-      <c r="A146" s="5">
-        <v>44702</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="30" customHeight="1">
-      <c r="A147" s="5">
-        <v>44703</v>
       </c>
     </row>
   </sheetData>
